--- a/experiments/results/all_results.xlsx
+++ b/experiments/results/all_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB22546-0114-4DDC-AC17-49D798269CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A01BEB-05EE-4748-BC56-A1FF030E810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,7 +344,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7AB42D-142B-494E-858A-BB99C8DCEF24}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,15 +705,15 @@
     <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="19"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -759,8 +762,8 @@
       <c r="R2" s="10"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
@@ -808,8 +811,8 @@
       <c r="R3" s="10"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
       <c r="C4" s="8">
         <v>0.96799999999999997</v>
       </c>
@@ -852,12 +855,29 @@
       <c r="P4" s="2">
         <v>67.400000000000006</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="R4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="S4" s="12">
+        <f>(R8+R6)/2</f>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="T4">
+        <f>R8-S4</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
       <c r="C5" s="8">
         <v>0.96799999999999997</v>
       </c>
@@ -898,12 +918,16 @@
       <c r="P5" s="2">
         <v>67.099999999999994</v>
       </c>
-      <c r="R5" s="8"/>
+      <c r="R5" s="13">
+        <v>0.96199999999999997</v>
+      </c>
       <c r="S5" s="12"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
       <c r="C6" s="8">
         <v>0.98</v>
       </c>
@@ -946,12 +970,16 @@
       <c r="P6" s="2">
         <v>86.2</v>
       </c>
-      <c r="R6" s="8"/>
+      <c r="R6" s="13">
+        <v>0.95599999999999996</v>
+      </c>
       <c r="S6" s="12"/>
-      <c r="V6" s="11"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
       <c r="C7" s="8">
         <v>0.97199999999999998</v>
       </c>
@@ -994,12 +1022,16 @@
       <c r="P7" s="2">
         <v>68</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="18" t="s">
+      <c r="R7" s="13">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1041,11 +1073,15 @@
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="R8" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="V8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
@@ -1091,8 +1127,8 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
       <c r="C10" s="8">
         <v>0.97199999999999998</v>
       </c>
@@ -1135,11 +1171,29 @@
       <c r="P10" s="2">
         <v>24.5</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="R10" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="S10">
+        <f>(R12+R14)/2</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T10">
+        <f>R12-S10</f>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="V10" s="13">
+        <v>97</v>
+      </c>
+      <c r="W10">
+        <v>97</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
       <c r="C11" s="8">
         <v>0.98399999999999999</v>
       </c>
@@ -1182,11 +1236,15 @@
       <c r="P11" s="2">
         <v>28.2</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="R11" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V11" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
       <c r="C12" s="8">
         <v>0.97</v>
       </c>
@@ -1229,13 +1287,17 @@
       <c r="P12" s="2">
         <v>32.1</v>
       </c>
-      <c r="R12" s="11"/>
+      <c r="R12" s="13">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="V12" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
       <c r="C13" s="8">
         <v>0.96399999999999997</v>
       </c>
@@ -1278,13 +1340,17 @@
       <c r="P13" s="2">
         <v>28.1</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="V13" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
@@ -1327,13 +1393,17 @@
       <c r="P14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="11"/>
+      <c r="R14" s="13">
+        <v>0.03</v>
+      </c>
       <c r="S14" s="12"/>
       <c r="T14" s="10"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="V14" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2">
@@ -1381,8 +1451,8 @@
       <c r="S15" s="12"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
       <c r="C16" s="2">
         <v>0.97199999999999998</v>
       </c>
@@ -1425,13 +1495,31 @@
       <c r="P16" s="2">
         <v>175.9</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="10"/>
-      <c r="V16" s="11"/>
+      <c r="R16" s="13">
+        <v>220</v>
+      </c>
+      <c r="S16" s="12">
+        <f>(R17+R19)/2</f>
+        <v>226.5</v>
+      </c>
+      <c r="T16" s="10">
+        <f>R17-S16</f>
+        <v>11.5</v>
+      </c>
+      <c r="V16" s="13">
+        <v>56</v>
+      </c>
+      <c r="W16">
+        <f>(V19+V20)/2</f>
+        <v>55.35</v>
+      </c>
+      <c r="X16">
+        <f>V19-W16</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2">
         <v>0.97399999999999998</v>
       </c>
@@ -1474,13 +1562,17 @@
       <c r="P17" s="2">
         <v>174.3</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="R17" s="13">
+        <v>238</v>
+      </c>
       <c r="S17" s="12"/>
       <c r="T17" s="10"/>
-      <c r="V17" s="11"/>
+      <c r="V17" s="13">
+        <v>54.7</v>
+      </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2">
         <v>0.98199999999999998</v>
       </c>
@@ -1523,13 +1615,17 @@
       <c r="P18" s="2">
         <v>210.3</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13">
+        <v>237</v>
+      </c>
       <c r="S18" s="12"/>
       <c r="T18" s="10"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="13">
+        <v>54.7</v>
+      </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2">
         <v>0.96799999999999997</v>
       </c>
@@ -1572,13 +1668,17 @@
       <c r="P19" s="2">
         <v>173.4</v>
       </c>
-      <c r="R19" s="11"/>
+      <c r="R19" s="13">
+        <v>215</v>
+      </c>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="V19" s="11"/>
+      <c r="V19" s="13">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1621,114 +1721,286 @@
       <c r="P20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="V20" s="11"/>
+      <c r="R20" s="13">
+        <v>226</v>
+      </c>
+      <c r="V20" s="13">
+        <v>54.6</v>
+      </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="C21" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H21" s="13">
+        <v>16</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J21" s="13">
+        <v>100</v>
+      </c>
+      <c r="K21" s="2">
+        <v>220</v>
+      </c>
+      <c r="L21" s="2">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2">
+        <v>265</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>97</v>
+      </c>
+      <c r="P21" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="R22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H22" s="13">
+        <v>16</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J22" s="13">
+        <v>100</v>
+      </c>
+      <c r="K22" s="2">
+        <v>238</v>
+      </c>
+      <c r="L22" s="2">
+        <v>19</v>
+      </c>
+      <c r="M22" s="2">
+        <v>243</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>97</v>
+      </c>
+      <c r="P22" s="2">
+        <v>54.7</v>
+      </c>
+      <c r="R22" s="13">
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <f>(R24+R26)/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="T22">
+        <f>R24-S22</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="R23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H23" s="13">
+        <v>16</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J23" s="13">
+        <v>100</v>
+      </c>
+      <c r="K23" s="2">
+        <v>237</v>
+      </c>
+      <c r="L23" s="2">
+        <v>22</v>
+      </c>
+      <c r="M23" s="2">
+        <v>241</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>96</v>
+      </c>
+      <c r="P23" s="2">
+        <v>54.7</v>
+      </c>
+      <c r="R23" s="13">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="R24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H24" s="13">
+        <v>16</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J24" s="13">
+        <v>100</v>
+      </c>
+      <c r="K24" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" s="2">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2">
+        <v>268</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>98</v>
+      </c>
+      <c r="P24" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="R24" s="13">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="R25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H25" s="13">
+        <v>16</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J25" s="13">
+        <v>100</v>
+      </c>
+      <c r="K25" s="2">
+        <v>226</v>
+      </c>
+      <c r="L25" s="2">
+        <v>13</v>
+      </c>
+      <c r="M25" s="2">
+        <v>259</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>97</v>
+      </c>
+      <c r="P25" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="R25" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="E26" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
       <c r="K26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1747,10 +2019,12 @@
       <c r="P26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="11"/>
+      <c r="R26" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="2"/>
@@ -1769,7 +2043,7 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1784,10 +2058,20 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="R28" s="11"/>
+      <c r="R28" s="13">
+        <v>265</v>
+      </c>
+      <c r="S28">
+        <f>(R31+R30)/2</f>
+        <v>254.5</v>
+      </c>
+      <c r="T28">
+        <f>R31-S28</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1802,10 +2086,12 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="R29" s="11"/>
+      <c r="R29" s="13">
+        <v>243</v>
+      </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1820,10 +2106,12 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="R30" s="11"/>
+      <c r="R30" s="13">
+        <v>241</v>
+      </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1838,10 +2126,12 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="R31" s="11"/>
+      <c r="R31" s="13">
+        <v>268</v>
+      </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="9" t="s">
         <v>21</v>
       </c>
@@ -1872,10 +2162,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="11"/>
+      <c r="R32" s="13">
+        <v>259</v>
+      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="8"/>
@@ -1894,7 +2186,7 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1911,7 +2203,7 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1928,7 +2220,7 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1945,7 +2237,7 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1962,7 +2254,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="9" t="s">
         <v>21</v>
       </c>

--- a/experiments/results/all_results.xlsx
+++ b/experiments/results/all_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A01BEB-05EE-4748-BC56-A1FF030E810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD57503-6308-487C-AD55-09CC1DF7169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Model</t>
   </si>
@@ -167,13 +167,64 @@
   </si>
   <si>
     <t>28.3±3.8</t>
+  </si>
+  <si>
+    <t>o:1e-3,i:3e-5</t>
+  </si>
+  <si>
+    <t>.963±.007</t>
+  </si>
+  <si>
+    <t>.037±.007</t>
+  </si>
+  <si>
+    <t>226.3±11.5</t>
+  </si>
+  <si>
+    <t>17.5±4.5</t>
+  </si>
+  <si>
+    <t>254.5±13.5</t>
+  </si>
+  <si>
+    <t>97±1</t>
+  </si>
+  <si>
+    <t>55.35±.075</t>
+  </si>
+  <si>
+    <t>o:2e-2, i:3.e-4</t>
+  </si>
+  <si>
+    <t>10-70</t>
+  </si>
+  <si>
+    <t>.97±.008</t>
+  </si>
+  <si>
+    <t>.03±.008</t>
+  </si>
+  <si>
+    <t>96.5±.5</t>
+  </si>
+  <si>
+    <t>220.5±9.5</t>
+  </si>
+  <si>
+    <t>15±4</t>
+  </si>
+  <si>
+    <t>265±11</t>
+  </si>
+  <si>
+    <t>417.35±17.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +251,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -308,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +420,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7AB42D-142B-494E-858A-BB99C8DCEF24}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +754,7 @@
     <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -705,7 +768,7 @@
     <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
@@ -713,7 +776,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +825,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -811,7 +874,7 @@
       <c r="R3" s="10"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="8">
         <v>0.96799999999999997</v>
@@ -855,28 +918,11 @@
       <c r="P4" s="2">
         <v>67.400000000000006</v>
       </c>
-      <c r="R4" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="S4" s="12">
-        <f>(R8+R6)/2</f>
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="T4">
-        <f>R8-S4</f>
-        <v>7.0000000000000062E-3</v>
-      </c>
-      <c r="V4" s="13">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R4" s="13"/>
+      <c r="S4" s="12"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="8">
         <v>0.96799999999999997</v>
@@ -896,7 +942,9 @@
       <c r="H5" s="2">
         <v>32</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="J5" s="2">
         <v>700</v>
       </c>
@@ -918,15 +966,11 @@
       <c r="P5" s="2">
         <v>67.099999999999994</v>
       </c>
-      <c r="R5" s="13">
-        <v>0.96199999999999997</v>
-      </c>
+      <c r="R5" s="13"/>
       <c r="S5" s="12"/>
-      <c r="V5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="8">
         <v>0.98</v>
@@ -970,15 +1014,11 @@
       <c r="P6" s="2">
         <v>86.2</v>
       </c>
-      <c r="R6" s="13">
-        <v>0.95599999999999996</v>
-      </c>
+      <c r="R6" s="13"/>
       <c r="S6" s="12"/>
-      <c r="V6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="8">
         <v>0.97199999999999998</v>
@@ -1022,14 +1062,10 @@
       <c r="P7" s="2">
         <v>68</v>
       </c>
-      <c r="R7" s="13">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
         <v>35</v>
@@ -1073,14 +1109,10 @@
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="V8" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1159,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" s="8">
         <v>0.97199999999999998</v>
@@ -1171,28 +1203,10 @@
       <c r="P10" s="2">
         <v>24.5</v>
       </c>
-      <c r="R10" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="S10">
-        <f>(R12+R14)/2</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="T10">
-        <f>R12-S10</f>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="V10" s="13">
-        <v>97</v>
-      </c>
-      <c r="W10">
-        <v>97</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="8">
         <v>0.98399999999999999</v>
@@ -1236,14 +1250,10 @@
       <c r="P11" s="2">
         <v>28.2</v>
       </c>
-      <c r="R11" s="13">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="V11" s="13">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="8">
         <v>0.97</v>
@@ -1287,16 +1297,12 @@
       <c r="P12" s="2">
         <v>32.1</v>
       </c>
-      <c r="R12" s="13">
-        <v>4.3999999999999997E-2</v>
-      </c>
+      <c r="R12" s="13"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="V12" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="8">
         <v>0.96399999999999997</v>
@@ -1340,16 +1346,12 @@
       <c r="P13" s="2">
         <v>28.1</v>
       </c>
-      <c r="R13" s="13">
-        <v>3.4000000000000002E-2</v>
-      </c>
+      <c r="R13" s="13"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="V13" s="13">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
@@ -1393,16 +1395,12 @@
       <c r="P14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="13">
-        <v>0.03</v>
-      </c>
+      <c r="R14" s="13"/>
       <c r="S14" s="12"/>
       <c r="T14" s="10"/>
-      <c r="V14" s="13">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1449,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="2">
         <v>0.97199999999999998</v>
@@ -1495,28 +1493,10 @@
       <c r="P16" s="2">
         <v>175.9</v>
       </c>
-      <c r="R16" s="13">
-        <v>220</v>
-      </c>
-      <c r="S16" s="12">
-        <f>(R17+R19)/2</f>
-        <v>226.5</v>
-      </c>
-      <c r="T16" s="10">
-        <f>R17-S16</f>
-        <v>11.5</v>
-      </c>
-      <c r="V16" s="13">
-        <v>56</v>
-      </c>
-      <c r="W16">
-        <f>(V19+V20)/2</f>
-        <v>55.35</v>
-      </c>
-      <c r="X16">
-        <f>V19-W16</f>
-        <v>0.75</v>
-      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="10"/>
+      <c r="V16" s="13"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
@@ -1562,14 +1542,10 @@
       <c r="P17" s="2">
         <v>174.3</v>
       </c>
-      <c r="R17" s="13">
-        <v>238</v>
-      </c>
+      <c r="R17" s="13"/>
       <c r="S17" s="12"/>
       <c r="T17" s="10"/>
-      <c r="V17" s="13">
-        <v>54.7</v>
-      </c>
+      <c r="V17" s="13"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
@@ -1615,14 +1591,10 @@
       <c r="P18" s="2">
         <v>210.3</v>
       </c>
-      <c r="R18" s="13">
-        <v>237</v>
-      </c>
+      <c r="R18" s="13"/>
       <c r="S18" s="12"/>
       <c r="T18" s="10"/>
-      <c r="V18" s="13">
-        <v>54.7</v>
-      </c>
+      <c r="V18" s="13"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
@@ -1668,14 +1640,10 @@
       <c r="P19" s="2">
         <v>173.4</v>
       </c>
-      <c r="R19" s="13">
-        <v>215</v>
-      </c>
+      <c r="R19" s="13"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="V19" s="13">
-        <v>56.1</v>
-      </c>
+      <c r="V19" s="13"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
@@ -1721,12 +1689,8 @@
       <c r="P20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="13">
-        <v>226</v>
-      </c>
-      <c r="V20" s="13">
-        <v>54.6</v>
-      </c>
+      <c r="R20" s="13"/>
+      <c r="V20" s="13"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
@@ -1819,17 +1783,7 @@
       <c r="P22" s="2">
         <v>54.7</v>
       </c>
-      <c r="R22" s="13">
-        <v>15</v>
-      </c>
-      <c r="S22">
-        <f>(R24+R26)/2</f>
-        <v>17.5</v>
-      </c>
-      <c r="T22">
-        <f>R24-S22</f>
-        <v>4.5</v>
-      </c>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
@@ -1875,9 +1829,7 @@
       <c r="P23" s="2">
         <v>54.7</v>
       </c>
-      <c r="R23" s="13">
-        <v>19</v>
-      </c>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
@@ -1923,9 +1875,7 @@
       <c r="P24" s="2">
         <v>56.1</v>
       </c>
-      <c r="R24" s="13">
-        <v>22</v>
-      </c>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
@@ -1971,17 +1921,15 @@
       <c r="P25" s="2">
         <v>54.6</v>
       </c>
-      <c r="R25" s="13">
-        <v>17</v>
-      </c>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E26" s="7">
         <v>1E-4</v>
@@ -2002,169 +1950,301 @@
         <v>100</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="13">
-        <v>13</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="C27" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2">
+        <v>32</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="2">
+        <v>211</v>
+      </c>
+      <c r="L27" s="2">
+        <v>13</v>
+      </c>
+      <c r="M27" s="2">
+        <v>276</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>97</v>
+      </c>
+      <c r="P27" s="2">
+        <v>416.24</v>
+      </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="R28" s="13">
-        <v>265</v>
-      </c>
-      <c r="S28">
-        <f>(R31+R30)/2</f>
-        <v>254.5</v>
-      </c>
-      <c r="T28">
-        <f>R31-S28</f>
-        <v>13.5</v>
-      </c>
+      <c r="C28" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="13">
+        <v>32</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="2">
+        <v>227</v>
+      </c>
+      <c r="L28" s="2">
+        <v>19</v>
+      </c>
+      <c r="M28" s="2">
+        <v>254</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>96</v>
+      </c>
+      <c r="P28" s="2">
+        <v>435.28300000000002</v>
+      </c>
+      <c r="R28" s="13"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="R29" s="13">
-        <v>243</v>
-      </c>
+      <c r="C29" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="13">
+        <v>32</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" s="2">
+        <v>15</v>
+      </c>
+      <c r="M29" s="2">
+        <v>256</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>97</v>
+      </c>
+      <c r="P29" s="2">
+        <v>399.42</v>
+      </c>
+      <c r="R29" s="13"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="R30" s="13">
-        <v>241</v>
-      </c>
+      <c r="C30" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="13">
+        <v>32</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" s="2">
+        <v>15</v>
+      </c>
+      <c r="M30" s="2">
+        <v>256</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>97</v>
+      </c>
+      <c r="P30" s="2">
+        <v>406.89</v>
+      </c>
+      <c r="R30" s="13"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="R31" s="13">
-        <v>268</v>
-      </c>
+      <c r="C31" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="13">
+        <v>32</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="2">
+        <v>230</v>
+      </c>
+      <c r="L31" s="2">
+        <v>11</v>
+      </c>
+      <c r="M31" s="2">
+        <v>259</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>97</v>
+      </c>
+      <c r="P31" s="2">
+        <v>408.57</v>
+      </c>
+      <c r="R31" s="13"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="3">
+        <v>32</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="13">
-        <v>259</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
@@ -2296,7 +2376,11 @@
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="B21:B26"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J27:J32" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/experiments/results/all_results.xlsx
+++ b/experiments/results/all_results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70BA9D1-E219-4F30-977D-3BDD8C057C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3BA05B-3F68-46EF-9CF4-6FF9422850A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="4656" yWindow="684" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="1" r:id="rId1"/>
-    <sheet name="compas-two-clients" sheetId="2" r:id="rId2"/>
+    <sheet name="compas-one-client-dp" sheetId="3" r:id="rId2"/>
+    <sheet name="compas-two-clients" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="92">
   <si>
     <t>Model</t>
   </si>
@@ -300,6 +301,18 @@
   </si>
   <si>
     <t>o:6, i:25</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>.002</t>
   </si>
 </sst>
 </file>
@@ -963,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1330,112 +1343,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,6 +1456,117 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1865,115 +1887,115 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="6" style="16" customWidth="1"/>
     <col min="19" max="30" width="6" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="11.140625" style="31" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11.109375" style="31" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5" customWidth="1"/>
-    <col min="38" max="38" width="6.7109375" customWidth="1"/>
+    <col min="38" max="38" width="6.6640625" customWidth="1"/>
     <col min="39" max="39" width="6" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="41" max="41" width="7.140625" customWidth="1"/>
-    <col min="42" max="42" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7.109375" customWidth="1"/>
+    <col min="42" max="42" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="130" t="s">
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="129" t="s">
+      <c r="F1" s="166"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="129" t="s">
+      <c r="L1" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="129" t="s">
+      <c r="M1" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="129" t="s">
+      <c r="N1" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="129" t="s">
+      <c r="O1" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="135" t="s">
+      <c r="P1" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="130" t="s">
+      <c r="Q1" s="174"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="131"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="130" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="131"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="130" t="s">
+      <c r="W1" s="166"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="130" t="s">
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="129" t="s">
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="138" t="s">
+      <c r="AF1" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="138" t="s">
+      <c r="AG1" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="138" t="s">
+      <c r="AH1" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="129" t="s">
+      <c r="AI1" s="168" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" s="172"/>
       <c r="B2" s="23" t="s">
         <v>60</v>
       </c>
@@ -1992,14 +2014,14 @@
       <c r="G2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
       <c r="P2" s="23" t="s">
         <v>60</v>
       </c>
@@ -2045,14 +2067,14 @@
       <c r="AD2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="129"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="168"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A3" s="176" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -2158,8 +2180,8 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A4" s="177"/>
       <c r="B4" s="4">
         <v>0.65600000000000003</v>
       </c>
@@ -2263,8 +2285,8 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A5" s="177"/>
       <c r="B5" s="4">
         <v>0.69</v>
       </c>
@@ -2368,8 +2390,8 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A6" s="177"/>
       <c r="B6" s="4">
         <v>0.71799999999999997</v>
       </c>
@@ -2473,8 +2495,8 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A7" s="177"/>
       <c r="B7" s="4">
         <v>0.66700000000000004</v>
       </c>
@@ -2578,8 +2600,8 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8" s="178"/>
       <c r="B8" s="8">
         <f t="shared" ref="B8:G8" si="0">AVERAGE(B3:B7)</f>
         <v>0.68399999999999994</v>
@@ -2709,8 +2731,8 @@
         <v>7.5860000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" s="176" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="19">
@@ -2816,8 +2838,8 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="177"/>
       <c r="B10" s="19">
         <v>0.71199999999999997</v>
       </c>
@@ -2921,8 +2943,8 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
       <c r="B11" s="19">
         <v>0.69699999999999995</v>
       </c>
@@ -3026,8 +3048,8 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" s="177"/>
       <c r="B12" s="19">
         <v>0.7</v>
       </c>
@@ -3138,8 +3160,8 @@
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" s="177"/>
       <c r="B13" s="19">
         <v>0.69699999999999995</v>
       </c>
@@ -3250,8 +3272,8 @@
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="178"/>
       <c r="B14" s="32">
         <f>AVERAGE(B9:B13)</f>
         <v>0.7026</v>
@@ -3388,8 +3410,8 @@
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="126" t="s">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="176" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -3502,8 +3524,8 @@
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16" s="177"/>
       <c r="B16" s="2">
         <v>0.7</v>
       </c>
@@ -3614,8 +3636,8 @@
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A17" s="177"/>
       <c r="B17" s="2">
         <v>0.69199999999999995</v>
       </c>
@@ -3726,8 +3748,8 @@
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A18" s="177"/>
       <c r="B18" s="2">
         <v>0.68700000000000006</v>
       </c>
@@ -3838,8 +3860,8 @@
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A19" s="177"/>
       <c r="B19" s="2">
         <v>0.67600000000000005</v>
       </c>
@@ -3950,8 +3972,8 @@
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A20" s="178"/>
       <c r="B20" s="5">
         <f>AVERAGE(B15:B19)</f>
         <v>0.68559999999999999</v>
@@ -4088,8 +4110,8 @@
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="126" t="s">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A21" s="176" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2">
@@ -4202,8 +4224,8 @@
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A22" s="177"/>
       <c r="B22" s="2">
         <v>0.72399999999999998</v>
       </c>
@@ -4314,8 +4336,8 @@
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A23" s="177"/>
       <c r="B23" s="2">
         <v>0.72399999999999998</v>
       </c>
@@ -4426,8 +4448,8 @@
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A24" s="177"/>
       <c r="B24" s="2">
         <v>0.66600000000000004</v>
       </c>
@@ -4538,8 +4560,8 @@
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A25" s="177"/>
       <c r="B25" s="2">
         <v>0.72899999999999998</v>
       </c>
@@ -4650,8 +4672,8 @@
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A26" s="178"/>
       <c r="B26" s="32">
         <f>AVERAGE(B21:B25)</f>
         <v>0.7095999999999999</v>
@@ -4788,8 +4810,8 @@
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="126" t="s">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A27" s="176" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="2">
@@ -4902,8 +4924,8 @@
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A28" s="177"/>
       <c r="B28" s="2">
         <v>0.68600000000000005</v>
       </c>
@@ -5014,8 +5036,8 @@
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A29" s="177"/>
       <c r="B29" s="2">
         <v>0.68899999999999995</v>
       </c>
@@ -5126,8 +5148,8 @@
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A30" s="177"/>
       <c r="B30" s="2">
         <v>0.67900000000000005</v>
       </c>
@@ -5238,8 +5260,8 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A31" s="177"/>
       <c r="B31" s="2">
         <v>0.67400000000000004</v>
       </c>
@@ -5350,8 +5372,8 @@
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="128"/>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A32" s="178"/>
       <c r="B32" s="5">
         <f>AVERAGE(B27:B31)</f>
         <v>0.69120000000000004</v>
@@ -5488,8 +5510,8 @@
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="129" t="s">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A33" s="168" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="4">
@@ -5602,8 +5624,8 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A34" s="168"/>
       <c r="B34" s="4">
         <v>0.66600000000000004</v>
       </c>
@@ -5714,8 +5736,8 @@
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A35" s="168"/>
       <c r="B35" s="4">
         <v>0.71</v>
       </c>
@@ -5826,8 +5848,8 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="129"/>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A36" s="168"/>
       <c r="B36" s="4">
         <v>0.71199999999999997</v>
       </c>
@@ -5938,8 +5960,8 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="129"/>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A37" s="168"/>
       <c r="B37" s="4">
         <v>0.68400000000000005</v>
       </c>
@@ -6050,8 +6072,8 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="129"/>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A38" s="168"/>
       <c r="B38" s="32">
         <f>AVERAGE(B33:B37)</f>
         <v>0.69640000000000002</v>
@@ -6188,7 +6210,7 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK39" s="6"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
@@ -6197,7 +6219,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK40" s="6"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
@@ -6206,7 +6228,7 @@
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="S41" s="31"/>
       <c r="AK41" s="6"/>
       <c r="AL41" s="7"/>
@@ -6216,7 +6238,7 @@
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK42" s="6"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
@@ -6225,7 +6247,7 @@
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK43" s="6"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
@@ -6239,14 +6261,12 @@
     <sortCondition descending="1" ref="AK27:AK31"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:G1"/>
@@ -6260,12 +6280,14 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6274,161 +6296,2598 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2674552-2241-4FC5-827F-03365368C2DE}">
+  <dimension ref="A1:AR43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AJ8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="6" style="16" customWidth="1"/>
+    <col min="20" max="31" width="6" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="11.109375" style="31" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" customWidth="1"/>
+    <col min="40" max="40" width="6" customWidth="1"/>
+    <col min="41" max="41" width="9" customWidth="1"/>
+    <col min="42" max="42" width="7.109375" customWidth="1"/>
+    <col min="43" max="43" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="166"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="173" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="174"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="166"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="165" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="169" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" s="172"/>
+      <c r="B2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="168"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="170"/>
+      <c r="AJ2" s="168"/>
+    </row>
+    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="126">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C3" s="126">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D3" s="126">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E3" s="126">
+        <v>0.437</v>
+      </c>
+      <c r="F3" s="126">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G3" s="126">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="126">
+        <v>50</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="201">
+        <v>1E-8</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>6</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>6</v>
+      </c>
+      <c r="T3" s="126">
+        <v>0</v>
+      </c>
+      <c r="U3" s="126">
+        <v>0</v>
+      </c>
+      <c r="V3" s="126">
+        <v>0</v>
+      </c>
+      <c r="W3" s="126">
+        <v>163</v>
+      </c>
+      <c r="X3" s="126">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="126">
+        <v>123</v>
+      </c>
+      <c r="Z3" s="126">
+        <v>131</v>
+      </c>
+      <c r="AA3" s="126">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="126">
+        <v>108</v>
+      </c>
+      <c r="AC3" s="126">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AD3" s="126">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="126">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" s="126">
+        <v>0.52</v>
+      </c>
+      <c r="AG3" s="28">
+        <v>-5.2600000000000001E-2</v>
+      </c>
+      <c r="AH3" s="28">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="AI3" s="28">
+        <v>-2.63E-2</v>
+      </c>
+      <c r="AJ3" s="126">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="177"/>
+      <c r="B4" s="127">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C4" s="127">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D4" s="127">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E4" s="127">
+        <v>0.437</v>
+      </c>
+      <c r="F4" s="127">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G4" s="126">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="17">
+        <v>6</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>6</v>
+      </c>
+      <c r="T4" s="126">
+        <v>0</v>
+      </c>
+      <c r="U4" s="126">
+        <v>0</v>
+      </c>
+      <c r="V4" s="126">
+        <v>0</v>
+      </c>
+      <c r="W4" s="126">
+        <v>163</v>
+      </c>
+      <c r="X4" s="126">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="126">
+        <v>123</v>
+      </c>
+      <c r="Z4" s="126">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="126">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="126">
+        <v>108</v>
+      </c>
+      <c r="AC4" s="126">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AD4" s="126">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="126">
+        <v>0.1</v>
+      </c>
+      <c r="AF4" s="126">
+        <v>0.52</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>-5.2600000000000001E-2</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>-2.63E-2</v>
+      </c>
+      <c r="AJ4" s="126">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="177"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="126"/>
+    </row>
+    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="177"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="126"/>
+    </row>
+    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="177"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="126"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A8" s="178"/>
+      <c r="B8" s="8">
+        <f t="shared" ref="B8:G8" si="0">AVERAGE(B3:B7)</f>
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.437</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="18">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>6</v>
+      </c>
+      <c r="R8" s="18">
+        <f>AVERAGE(R3:R7)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <f>AVERAGE(S3:S7)</f>
+        <v>6</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" ref="T8:AJ8" si="1">AVERAGE(T3:T7)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="X8" s="18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="AA8" s="18">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AB8" s="18">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AD8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="AG8" s="29">
+        <f t="shared" si="1"/>
+        <v>-5.2600000000000001E-2</v>
+      </c>
+      <c r="AH8" s="29">
+        <f t="shared" si="1"/>
+        <v>-2.53E-2</v>
+      </c>
+      <c r="AI8" s="29">
+        <f t="shared" si="1"/>
+        <v>-2.63E-2</v>
+      </c>
+      <c r="AJ8" s="18">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="20"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" s="177"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="20"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="20"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" s="177"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="20"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" s="177"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="20"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A14" s="178"/>
+      <c r="B14" s="32" t="e">
+        <f>AVERAGE(B9:B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="32" t="e">
+        <f t="shared" ref="C14:AJ14" si="2">AVERAGE(C9:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A15" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="126"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A16" s="177"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="126"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A17" s="177"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="126"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A18" s="177"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="126"/>
+      <c r="AC18" s="126"/>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="126"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A19" s="177"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="126"/>
+      <c r="AC19" s="126"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="126"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" s="178"/>
+      <c r="B20" s="5" t="e">
+        <f>AVERAGE(B15:B19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="5" t="e">
+        <f t="shared" ref="C20:G20" si="3">AVERAGE(C15:C19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="18" t="e">
+        <f>AVERAGE(Q15:Q19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="18" t="e">
+        <f t="shared" ref="R20:AJ20" si="4">AVERAGE(R15:R19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG20" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH20" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI20" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A21" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="126"/>
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="126"/>
+      <c r="AB21" s="126"/>
+      <c r="AC21" s="126"/>
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="126"/>
+      <c r="AF21" s="126"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="126"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A22" s="177"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="126"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="177"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="126"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="177"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="126"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="126"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="177"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="126"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="126"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="178"/>
+      <c r="B26" s="32" t="e">
+        <f>AVERAGE(B21:B25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="32" t="e">
+        <f t="shared" ref="C26:G26" si="5">AVERAGE(C21:C25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="37" t="e">
+        <f>AVERAGE(Q21:Q25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="37" t="e">
+        <f t="shared" ref="R26:AJ26" si="6">AVERAGE(R21:R25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="38" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH26" s="38" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="38" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="126"/>
+      <c r="AC27" s="126"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="126"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="126"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A28" s="177"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="126"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="177"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="126"/>
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="126"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="126"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="177"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
+      <c r="X30" s="126"/>
+      <c r="Y30" s="126"/>
+      <c r="Z30" s="126"/>
+      <c r="AA30" s="126"/>
+      <c r="AB30" s="126"/>
+      <c r="AC30" s="126"/>
+      <c r="AD30" s="126"/>
+      <c r="AE30" s="126"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="126"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="177"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="126"/>
+      <c r="AB31" s="126"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="126"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="178"/>
+      <c r="B32" s="5" t="e">
+        <f>AVERAGE(B27:B31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="5" t="e">
+        <f t="shared" ref="C32:G32" si="7">AVERAGE(C27:C31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="18" t="e">
+        <f>AVERAGE(Q27:Q31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="18" t="e">
+        <f t="shared" ref="R32:AJ32" si="8">AVERAGE(R27:R31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="29" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="29" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="29" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="126"/>
+      <c r="AB33" s="126"/>
+      <c r="AC33" s="126"/>
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="126"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="126"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="168"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
+      <c r="AB34" s="126"/>
+      <c r="AC34" s="126"/>
+      <c r="AD34" s="126"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="126"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="126"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="168"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="126"/>
+      <c r="W35" s="126"/>
+      <c r="X35" s="126"/>
+      <c r="Y35" s="126"/>
+      <c r="Z35" s="126"/>
+      <c r="AA35" s="126"/>
+      <c r="AB35" s="126"/>
+      <c r="AC35" s="126"/>
+      <c r="AD35" s="126"/>
+      <c r="AE35" s="126"/>
+      <c r="AF35" s="126"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="126"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A36" s="168"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="126"/>
+      <c r="W36" s="126"/>
+      <c r="X36" s="126"/>
+      <c r="Y36" s="126"/>
+      <c r="Z36" s="126"/>
+      <c r="AA36" s="126"/>
+      <c r="AB36" s="126"/>
+      <c r="AC36" s="126"/>
+      <c r="AD36" s="126"/>
+      <c r="AE36" s="126"/>
+      <c r="AF36" s="126"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="126"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="168"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
+      <c r="X37" s="126"/>
+      <c r="Y37" s="126"/>
+      <c r="Z37" s="126"/>
+      <c r="AA37" s="126"/>
+      <c r="AB37" s="126"/>
+      <c r="AC37" s="126"/>
+      <c r="AD37" s="126"/>
+      <c r="AE37" s="126"/>
+      <c r="AF37" s="126"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="126"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="168"/>
+      <c r="B38" s="32" t="e">
+        <f>AVERAGE(B33:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="32" t="e">
+        <f t="shared" ref="C38:G38" si="9">AVERAGE(C33:C37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="37" t="e">
+        <f>AVERAGE(Q33:Q37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="37" t="e">
+        <f t="shared" ref="R38:AJ38" si="10">AVERAGE(R33:R37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="T41" s="31"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4CF02E-D9A7-4A54-9195-3706D35A2B83}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:EE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="24" customWidth="1"/>
     <col min="3" max="13" width="6" style="24" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" style="24" bestFit="1" customWidth="1"/>
     <col min="22" max="45" width="6" style="110" customWidth="1"/>
     <col min="46" max="51" width="6" style="24" customWidth="1"/>
-    <col min="52" max="59" width="9.140625" style="24"/>
-    <col min="60" max="61" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="24"/>
+    <col min="52" max="59" width="9.109375" style="24"/>
+    <col min="60" max="61" width="13.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="153" t="s">
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="153" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="153"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="153" t="s">
+      <c r="I1" s="185"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="144" t="s">
+      <c r="L1" s="185"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="140" t="s">
+      <c r="O1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="140" t="s">
+      <c r="P1" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="140" t="s">
+      <c r="Q1" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="147" t="s">
+      <c r="R1" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="140" t="s">
+      <c r="S1" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="140" t="s">
+      <c r="T1" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="142" t="s">
+      <c r="U1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="151" t="s">
+      <c r="V1" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="151" t="s">
+      <c r="W1" s="189"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="152"/>
-      <c r="AB1" s="151" t="s">
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="151" t="s">
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="152"/>
-      <c r="AH1" s="151" t="s">
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="190"/>
+      <c r="AH1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="151" t="s">
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="190"/>
+      <c r="AK1" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="152"/>
-      <c r="AN1" s="151" t="s">
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="190"/>
+      <c r="AN1" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="152"/>
-      <c r="AQ1" s="151" t="s">
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="190"/>
+      <c r="AQ1" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="152"/>
-      <c r="AT1" s="153" t="s">
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="190"/>
+      <c r="AT1" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" s="153"/>
-      <c r="AV1" s="154"/>
-      <c r="AW1" s="153" t="s">
+      <c r="AU1" s="185"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="153"/>
-      <c r="AY1" s="154"/>
-      <c r="AZ1" s="149" t="s">
+      <c r="AX1" s="185"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="149" t="s">
+      <c r="BA1" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="149" t="s">
+      <c r="BB1" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="BC1" s="149" t="s">
+      <c r="BC1" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="BD1" s="149" t="s">
+      <c r="BD1" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="BE1" s="149" t="s">
+      <c r="BE1" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="BF1" s="149" t="s">
+      <c r="BF1" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="149" t="s">
+      <c r="BG1" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="BH1" s="149" t="s">
+      <c r="BH1" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="149" t="s">
+      <c r="BI1" s="191" t="s">
         <v>52</v>
       </c>
       <c r="BJ1" s="66"/>
@@ -6506,8 +8965,8 @@
       <c r="ED1" s="66"/>
       <c r="EE1" s="66"/>
     </row>
-    <row r="2" spans="1:135" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
+    <row r="2" spans="1:135" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="188"/>
       <c r="B2" s="54" t="s">
         <v>60</v>
       </c>
@@ -6544,14 +9003,14 @@
       <c r="M2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="143"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="182"/>
       <c r="V2" s="84" t="s">
         <v>60</v>
       </c>
@@ -6642,16 +9101,16 @@
       <c r="AY2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BG2" s="150"/>
-      <c r="BH2" s="150"/>
-      <c r="BI2" s="150"/>
+      <c r="AZ2" s="192"/>
+      <c r="BA2" s="192"/>
+      <c r="BB2" s="192"/>
+      <c r="BC2" s="192"/>
+      <c r="BD2" s="192"/>
+      <c r="BE2" s="192"/>
+      <c r="BF2" s="192"/>
+      <c r="BG2" s="192"/>
+      <c r="BH2" s="192"/>
+      <c r="BI2" s="192"/>
       <c r="BJ2" s="67"/>
       <c r="BK2" s="67"/>
       <c r="BL2" s="67"/>
@@ -6727,8 +9186,8 @@
       <c r="ED2" s="67"/>
       <c r="EE2" s="67"/>
     </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="40">
@@ -6979,8 +9438,8 @@
       <c r="ED3" s="66"/>
       <c r="EE3" s="66"/>
     </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A4" s="143"/>
+    <row r="4" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A4" s="182"/>
       <c r="B4" s="19">
         <v>0.70699999999999996</v>
       </c>
@@ -7178,8 +9637,8 @@
       <c r="BZ4" s="66"/>
       <c r="CA4" s="66"/>
     </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
+    <row r="5" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A5" s="182"/>
       <c r="B5" s="19">
         <v>0.61699999999999999</v>
       </c>
@@ -7377,8 +9836,8 @@
       <c r="BZ5" s="66"/>
       <c r="CA5" s="66"/>
     </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
+    <row r="6" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A6" s="182"/>
       <c r="B6" s="19">
         <v>0.64300000000000002</v>
       </c>
@@ -7560,8 +10019,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
+    <row r="7" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A7" s="182"/>
       <c r="B7" s="19">
         <v>0.65</v>
       </c>
@@ -7743,8 +10202,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
+    <row r="8" spans="1:135" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="183"/>
       <c r="B8" s="71">
         <f>AVERAGE(B3:B7)</f>
         <v>0.66539999999999988</v>
@@ -7978,8 +10437,8 @@
         <v>4.3340000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A9" s="157" t="s">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A9" s="179" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="40">
@@ -8163,8 +10622,8 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
+    <row r="10" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A10" s="180"/>
       <c r="B10" s="19">
         <v>0.65</v>
       </c>
@@ -8346,8 +10805,8 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
+    <row r="11" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A11" s="180"/>
       <c r="B11" s="19">
         <v>0.65700000000000003</v>
       </c>
@@ -8529,8 +10988,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
+    <row r="12" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A12" s="180"/>
       <c r="B12" s="19">
         <v>0.69299999999999995</v>
       </c>
@@ -8712,8 +11171,8 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
+    <row r="13" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A13" s="180"/>
       <c r="B13" s="19">
         <v>0.72</v>
       </c>
@@ -8895,8 +11354,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159"/>
+    <row r="14" spans="1:135" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="181"/>
       <c r="B14" s="76">
         <f>AVERAGE(B9:B13)</f>
         <v>0.67400000000000004</v>
@@ -8945,28 +11404,28 @@
         <f t="shared" si="4"/>
         <v>0.29160000000000003</v>
       </c>
-      <c r="N14" s="163" t="s">
+      <c r="N14" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="164" t="s">
+      <c r="O14" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="165" t="s">
+      <c r="P14" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="165" t="s">
+      <c r="Q14" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="164" t="s">
+      <c r="R14" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="164" t="s">
+      <c r="S14" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="164" t="s">
+      <c r="T14" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="166" t="s">
+      <c r="U14" s="132" t="s">
         <v>83</v>
       </c>
       <c r="V14" s="98">
@@ -9065,74 +11524,74 @@
         <f t="shared" si="5"/>
         <v>47.2</v>
       </c>
-      <c r="AT14" s="187">
+      <c r="AT14" s="153">
         <f>AVERAGE(AT9:AT13)</f>
         <v>0.69159999999999999</v>
       </c>
-      <c r="AU14" s="173">
+      <c r="AU14" s="139">
         <f t="shared" si="5"/>
         <v>0.52860000000000007</v>
       </c>
-      <c r="AV14" s="188">
+      <c r="AV14" s="154">
         <f t="shared" si="5"/>
         <v>0.71599999999999997</v>
       </c>
-      <c r="AW14" s="187">
+      <c r="AW14" s="153">
         <f t="shared" si="5"/>
         <v>0.54759999999999998</v>
       </c>
-      <c r="AX14" s="173">
+      <c r="AX14" s="139">
         <f t="shared" si="5"/>
         <v>0.42759999999999998</v>
       </c>
-      <c r="AY14" s="190">
+      <c r="AY14" s="156">
         <f t="shared" si="5"/>
         <v>0.56479999999999997</v>
       </c>
-      <c r="AZ14" s="194">
+      <c r="AZ14" s="160">
         <f t="shared" si="5"/>
         <v>0.64600000000000002</v>
       </c>
-      <c r="BA14" s="196">
+      <c r="BA14" s="162">
         <f t="shared" si="5"/>
         <v>0.66200000000000003</v>
       </c>
-      <c r="BB14" s="193">
+      <c r="BB14" s="159">
         <f t="shared" si="5"/>
         <v>-0.20963999999999999</v>
       </c>
-      <c r="BC14" s="195">
+      <c r="BC14" s="161">
         <f t="shared" si="5"/>
         <v>-0.16011999999999998</v>
       </c>
-      <c r="BD14" s="195">
+      <c r="BD14" s="161">
         <f t="shared" si="5"/>
         <v>-0.21482000000000001</v>
       </c>
-      <c r="BE14" s="195">
+      <c r="BE14" s="161">
         <f t="shared" si="5"/>
         <v>-0.14088000000000001</v>
       </c>
-      <c r="BF14" s="195">
+      <c r="BF14" s="161">
         <f t="shared" si="5"/>
         <v>-0.16053999999999999</v>
       </c>
-      <c r="BG14" s="195">
+      <c r="BG14" s="161">
         <f t="shared" si="5"/>
         <v>-0.121</v>
       </c>
-      <c r="BH14" s="194">
+      <c r="BH14" s="160">
         <f t="shared" si="5"/>
         <v>14.152000000000001</v>
       </c>
-      <c r="BI14" s="191">
+      <c r="BI14" s="157">
         <f t="shared" si="5"/>
         <v>16.923999999999999</v>
       </c>
-      <c r="BJ14" s="192"/>
+      <c r="BJ14" s="158"/>
     </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A15" s="143" t="s">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A15" s="182" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="40">
@@ -9171,7 +11630,7 @@
       <c r="M15" s="58">
         <v>0.34599999999999997</v>
       </c>
-      <c r="N15" s="162" t="s">
+      <c r="N15" s="128" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="42" t="s">
@@ -9316,8 +11775,8 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
+    <row r="16" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A16" s="182"/>
       <c r="B16" s="19">
         <v>0.65700000000000003</v>
       </c>
@@ -9354,7 +11813,7 @@
       <c r="M16" s="50">
         <v>0.31900000000000001</v>
       </c>
-      <c r="N16" s="162" t="s">
+      <c r="N16" s="128" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="42" t="s">
@@ -9499,8 +11958,8 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A17" s="182"/>
       <c r="B17" s="19">
         <v>0.65</v>
       </c>
@@ -9537,7 +11996,7 @@
       <c r="M17" s="50">
         <v>0.28299999999999997</v>
       </c>
-      <c r="N17" s="162" t="s">
+      <c r="N17" s="128" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="42" t="s">
@@ -9682,8 +12141,8 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
       <c r="B18" s="19">
         <v>0.63700000000000001</v>
       </c>
@@ -9720,7 +12179,7 @@
       <c r="M18" s="50">
         <v>0.30499999999999999</v>
       </c>
-      <c r="N18" s="162" t="s">
+      <c r="N18" s="128" t="s">
         <v>22</v>
       </c>
       <c r="O18" s="42" t="s">
@@ -9865,8 +12324,8 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A19" s="182"/>
       <c r="B19" s="19">
         <v>0.67300000000000004</v>
       </c>
@@ -9903,7 +12362,7 @@
       <c r="M19" s="50">
         <v>0.33200000000000002</v>
       </c>
-      <c r="N19" s="162" t="s">
+      <c r="N19" s="128" t="s">
         <v>22</v>
       </c>
       <c r="O19" s="42" t="s">
@@ -9927,76 +12386,76 @@
       <c r="U19" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="V19" s="175">
+      <c r="V19" s="141">
         <v>97</v>
       </c>
-      <c r="W19" s="175">
+      <c r="W19" s="141">
         <v>10</v>
       </c>
-      <c r="X19" s="176">
+      <c r="X19" s="142">
         <v>87</v>
       </c>
-      <c r="Y19" s="177">
+      <c r="Y19" s="143">
         <v>42</v>
       </c>
-      <c r="Z19" s="178">
+      <c r="Z19" s="144">
         <v>6</v>
       </c>
-      <c r="AA19" s="179">
+      <c r="AA19" s="145">
         <v>36</v>
       </c>
-      <c r="AB19" s="177">
+      <c r="AB19" s="143">
         <v>40</v>
       </c>
-      <c r="AC19" s="178">
+      <c r="AC19" s="144">
         <v>2</v>
       </c>
-      <c r="AD19" s="179">
+      <c r="AD19" s="145">
         <v>38</v>
       </c>
-      <c r="AE19" s="177">
+      <c r="AE19" s="143">
         <v>20</v>
       </c>
-      <c r="AF19" s="178">
+      <c r="AF19" s="144">
         <v>1</v>
       </c>
-      <c r="AG19" s="179">
+      <c r="AG19" s="145">
         <v>19</v>
       </c>
-      <c r="AH19" s="177">
+      <c r="AH19" s="143">
         <v>105</v>
       </c>
-      <c r="AI19" s="178">
+      <c r="AI19" s="144">
         <v>33</v>
       </c>
-      <c r="AJ19" s="179">
+      <c r="AJ19" s="145">
         <v>72</v>
       </c>
-      <c r="AK19" s="177">
+      <c r="AK19" s="143">
         <v>165</v>
       </c>
-      <c r="AL19" s="178">
+      <c r="AL19" s="144">
         <v>42</v>
       </c>
-      <c r="AM19" s="179">
+      <c r="AM19" s="145">
         <v>123</v>
       </c>
-      <c r="AN19" s="177">
+      <c r="AN19" s="143">
         <v>58</v>
       </c>
-      <c r="AO19" s="178">
+      <c r="AO19" s="144">
         <v>15</v>
       </c>
-      <c r="AP19" s="179">
+      <c r="AP19" s="145">
         <v>43</v>
       </c>
-      <c r="AQ19" s="177">
+      <c r="AQ19" s="143">
         <v>73</v>
       </c>
-      <c r="AR19" s="178">
+      <c r="AR19" s="144">
         <v>13</v>
       </c>
-      <c r="AS19" s="179">
+      <c r="AS19" s="145">
         <v>60</v>
       </c>
       <c r="AT19" s="45">
@@ -10048,8 +12507,8 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160"/>
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="183"/>
       <c r="B20" s="71">
         <f>AVERAGE(B15:B19)</f>
         <v>0.65680000000000005</v>
@@ -10098,28 +12557,28 @@
         <f t="shared" si="6"/>
         <v>0.317</v>
       </c>
-      <c r="N20" s="170" t="s">
+      <c r="N20" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="171" t="s">
+      <c r="O20" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="171" t="s">
+      <c r="P20" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="171" t="s">
+      <c r="Q20" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="172" t="s">
+      <c r="R20" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="172" t="s">
+      <c r="S20" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="T20" s="172" t="s">
+      <c r="T20" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="U20" s="180" t="s">
+      <c r="U20" s="146" t="s">
         <v>83</v>
       </c>
       <c r="V20" s="122">
@@ -10218,73 +12677,73 @@
         <f t="shared" si="7"/>
         <v>53.4</v>
       </c>
-      <c r="AT20" s="181">
+      <c r="AT20" s="147">
         <f t="shared" si="7"/>
         <v>0.66439999999999999</v>
       </c>
-      <c r="AU20" s="182">
+      <c r="AU20" s="148">
         <f t="shared" si="7"/>
         <v>0.50540000000000007</v>
       </c>
-      <c r="AV20" s="183">
+      <c r="AV20" s="149">
         <f t="shared" si="7"/>
         <v>0.68559999999999999</v>
       </c>
-      <c r="AW20" s="181">
+      <c r="AW20" s="147">
         <f t="shared" si="7"/>
         <v>0.48719999999999997</v>
       </c>
-      <c r="AX20" s="182">
+      <c r="AX20" s="148">
         <f t="shared" si="7"/>
         <v>0.34019999999999995</v>
       </c>
-      <c r="AY20" s="183">
+      <c r="AY20" s="149">
         <f t="shared" si="7"/>
         <v>0.55020000000000002</v>
       </c>
-      <c r="AZ20" s="189">
+      <c r="AZ20" s="155">
         <f t="shared" si="7"/>
         <v>0.65920000000000001</v>
       </c>
-      <c r="BA20" s="184">
+      <c r="BA20" s="150">
         <f t="shared" si="7"/>
         <v>0.63200000000000001</v>
       </c>
-      <c r="BB20" s="174">
+      <c r="BB20" s="140">
         <f t="shared" si="7"/>
         <v>-0.2888</v>
       </c>
-      <c r="BC20" s="185">
+      <c r="BC20" s="151">
         <f t="shared" si="7"/>
         <v>-0.18898000000000001</v>
       </c>
-      <c r="BD20" s="185">
+      <c r="BD20" s="151">
         <f t="shared" si="7"/>
         <v>-0.31524000000000002</v>
       </c>
-      <c r="BE20" s="186">
+      <c r="BE20" s="152">
         <f t="shared" si="7"/>
         <v>-0.15436</v>
       </c>
-      <c r="BF20" s="186">
+      <c r="BF20" s="152">
         <f t="shared" si="7"/>
         <v>-0.27725999999999995</v>
       </c>
-      <c r="BG20" s="186">
+      <c r="BG20" s="152">
         <f t="shared" si="7"/>
         <v>-0.14038</v>
       </c>
-      <c r="BH20" s="184">
+      <c r="BH20" s="150">
         <f t="shared" si="7"/>
         <v>7.2320000000000011</v>
       </c>
-      <c r="BI20" s="184">
+      <c r="BI20" s="150">
         <f t="shared" si="7"/>
         <v>8.0520000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A21" s="184" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="40">
@@ -10468,8 +12927,8 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A22" s="182"/>
       <c r="B22" s="19">
         <v>0.71699999999999997</v>
       </c>
@@ -10651,8 +13110,8 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A23" s="182"/>
       <c r="B23" s="19">
         <v>0.7</v>
       </c>
@@ -10834,8 +13293,8 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A24" s="182"/>
       <c r="B24" s="19">
         <v>0.70299999999999996</v>
       </c>
@@ -11017,8 +13476,8 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A25" s="182"/>
       <c r="B25" s="19">
         <v>0.67300000000000004</v>
       </c>
@@ -11200,8 +13659,8 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="160"/>
+    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="183"/>
       <c r="B26" s="76">
         <f>AVERAGE(B21:B25)</f>
         <v>0.68859999999999999</v>
@@ -11222,7 +13681,7 @@
         <f>AVERAGE(F21:F25)</f>
         <v>0.74060000000000004</v>
       </c>
-      <c r="G26" s="197">
+      <c r="G26" s="163">
         <f>AVERAGE(G21:G25)</f>
         <v>0.69779999999999986</v>
       </c>
@@ -11250,35 +13709,35 @@
         <f t="shared" si="10"/>
         <v>0.30219999999999997</v>
       </c>
-      <c r="N26" s="163" t="s">
+      <c r="N26" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="164" t="s">
+      <c r="O26" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="165" t="s">
+      <c r="P26" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="Q26" s="165" t="s">
+      <c r="Q26" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="R26" s="164" t="s">
+      <c r="R26" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="S26" s="164" t="s">
+      <c r="S26" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="T26" s="164" t="s">
+      <c r="T26" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="U26" s="166" t="s">
+      <c r="U26" s="132" t="s">
         <v>83</v>
       </c>
       <c r="V26" s="109">
         <f>AVERAGE(V21:V25)</f>
         <v>118.4</v>
       </c>
-      <c r="W26" s="198">
+      <c r="W26" s="164">
         <f t="shared" ref="W26:X26" si="11">AVERAGE(W21:W25)</f>
         <v>11.2</v>
       </c>
@@ -11378,7 +13837,7 @@
         <f t="shared" ref="AU26:AV26" si="19">AVERAGE(AU21:AU25)</f>
         <v>0.50960000000000005</v>
       </c>
-      <c r="AV26" s="197">
+      <c r="AV26" s="163">
         <f t="shared" si="19"/>
         <v>0.73699999999999999</v>
       </c>
@@ -11395,48 +13854,48 @@
         <v>0.54860000000000009</v>
       </c>
       <c r="AZ26" s="79">
-        <f>AVERAGE(AZ21:AZ25)</f>
+        <f t="shared" ref="AZ26:BI26" si="21">AVERAGE(AZ21:AZ25)</f>
         <v>0.65199999999999991</v>
       </c>
       <c r="BA26" s="79">
-        <f>AVERAGE(BA21:BA25)</f>
+        <f t="shared" si="21"/>
         <v>0.65200000000000002</v>
       </c>
       <c r="BB26" s="79">
-        <f>AVERAGE(BB21:BB25)</f>
+        <f t="shared" si="21"/>
         <v>-0.24690000000000004</v>
       </c>
       <c r="BC26" s="79">
-        <f>AVERAGE(BC21:BC25)</f>
+        <f t="shared" si="21"/>
         <v>-0.15451999999999999</v>
       </c>
       <c r="BD26" s="79">
-        <f>AVERAGE(BD21:BD25)</f>
+        <f t="shared" si="21"/>
         <v>-0.26578000000000002</v>
       </c>
       <c r="BE26" s="79">
-        <f>AVERAGE(BE21:BE25)</f>
+        <f t="shared" si="21"/>
         <v>-0.13818000000000003</v>
       </c>
       <c r="BF26" s="79">
-        <f>AVERAGE(BF21:BF25)</f>
+        <f t="shared" si="21"/>
         <v>-0.21972</v>
       </c>
       <c r="BG26" s="79">
-        <f>AVERAGE(BG21:BG25)</f>
+        <f t="shared" si="21"/>
         <v>-0.12991999999999998</v>
       </c>
       <c r="BH26" s="79">
-        <f>AVERAGE(BH21:BH25)</f>
+        <f t="shared" si="21"/>
         <v>20.07</v>
       </c>
       <c r="BI26" s="79">
-        <f>AVERAGE(BI21:BI25)</f>
+        <f t="shared" si="21"/>
         <v>25.892000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A27" s="184" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="40">
@@ -11620,8 +14079,8 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A28" s="182"/>
       <c r="B28" s="19">
         <v>0.64300000000000002</v>
       </c>
@@ -11803,8 +14262,8 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A29" s="182"/>
       <c r="B29" s="19">
         <v>0.67</v>
       </c>
@@ -11986,8 +14445,8 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A30" s="182"/>
       <c r="B30" s="19">
         <v>0.62</v>
       </c>
@@ -12169,8 +14628,8 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A31" s="182"/>
       <c r="B31" s="19">
         <v>0.68</v>
       </c>
@@ -12352,243 +14811,243 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="160"/>
+    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="183"/>
       <c r="B32" s="71">
-        <f>AVERAGE(B27:B31)</f>
+        <f t="shared" ref="B32:M32" si="22">AVERAGE(B27:B31)</f>
         <v>0.65400000000000014</v>
       </c>
       <c r="C32" s="72">
-        <f>AVERAGE(C27:C31)</f>
+        <f t="shared" si="22"/>
         <v>0.59460000000000002</v>
       </c>
       <c r="D32" s="73">
-        <f>AVERAGE(D27:D31)</f>
+        <f t="shared" si="22"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="E32" s="71">
-        <f>AVERAGE(E27:E31)</f>
+        <f t="shared" si="22"/>
         <v>0.70919999999999994</v>
       </c>
       <c r="F32" s="71">
-        <f>AVERAGE(F27:F31)</f>
+        <f t="shared" si="22"/>
         <v>0.73439999999999994</v>
       </c>
       <c r="G32" s="73">
-        <f>AVERAGE(G27:G31)</f>
+        <f t="shared" si="22"/>
         <v>0.70379999999999998</v>
       </c>
       <c r="H32" s="71">
-        <f>AVERAGE(H27:H31)</f>
+        <f t="shared" si="22"/>
         <v>0.34600000000000003</v>
       </c>
       <c r="I32" s="71">
-        <f>AVERAGE(I27:I31)</f>
+        <f t="shared" si="22"/>
         <v>0.40540000000000004</v>
       </c>
       <c r="J32" s="73">
-        <f>AVERAGE(J27:J31)</f>
+        <f t="shared" si="22"/>
         <v>0.33300000000000002</v>
       </c>
       <c r="K32" s="71">
-        <f>AVERAGE(K27:K31)</f>
+        <f t="shared" si="22"/>
         <v>0.2908</v>
       </c>
       <c r="L32" s="72">
-        <f>AVERAGE(L27:L31)</f>
+        <f t="shared" si="22"/>
         <v>0.26572000000000007</v>
       </c>
       <c r="M32" s="73">
-        <f>AVERAGE(M27:M31)</f>
+        <f t="shared" si="22"/>
         <v>0.29619999999999996</v>
       </c>
-      <c r="N32" s="167" t="s">
+      <c r="N32" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="O32" s="168" t="s">
+      <c r="O32" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="P32" s="168" t="s">
+      <c r="P32" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="Q32" s="168" t="s">
+      <c r="Q32" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="168" t="s">
+      <c r="R32" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="168" t="s">
+      <c r="S32" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="T32" s="168" t="s">
+      <c r="T32" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="169" t="s">
+      <c r="U32" s="135" t="s">
         <v>83</v>
       </c>
       <c r="V32" s="108">
-        <f>AVERAGE(V27:V31)</f>
+        <f t="shared" ref="V32:BI32" si="23">AVERAGE(V27:V31)</f>
         <v>106.4</v>
       </c>
       <c r="W32" s="91">
-        <f>AVERAGE(W27:W31)</f>
+        <f t="shared" si="23"/>
         <v>6.8</v>
       </c>
       <c r="X32" s="92">
-        <f>AVERAGE(X27:X31)</f>
+        <f t="shared" si="23"/>
         <v>99.6</v>
       </c>
       <c r="Y32" s="93">
-        <f>AVERAGE(Y27:Y31)</f>
+        <f t="shared" si="23"/>
         <v>41.4</v>
       </c>
       <c r="Z32" s="91">
-        <f>AVERAGE(Z27:Z31)</f>
+        <f t="shared" si="23"/>
         <v>3.6</v>
       </c>
       <c r="AA32" s="92">
-        <f>AVERAGE(AA27:AA31)</f>
+        <f t="shared" si="23"/>
         <v>37.799999999999997</v>
       </c>
       <c r="AB32" s="93">
-        <f>AVERAGE(AB27:AB31)</f>
+        <f t="shared" si="23"/>
         <v>54.6</v>
       </c>
       <c r="AC32" s="91">
-        <f>AVERAGE(AC27:AC31)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="AD32" s="92">
-        <f>AVERAGE(AD27:AD31)</f>
+        <f t="shared" si="23"/>
         <v>45.6</v>
       </c>
       <c r="AE32" s="93">
-        <f>AVERAGE(AE27:AE31)</f>
+        <f t="shared" si="23"/>
         <v>17.2</v>
       </c>
       <c r="AF32" s="91">
-        <f>AVERAGE(AF27:AF31)</f>
+        <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
       <c r="AG32" s="92">
-        <f>AVERAGE(AG27:AG31)</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="AH32" s="93">
-        <f>AVERAGE(AH27:AH31)</f>
+        <f t="shared" si="23"/>
         <v>89.8</v>
       </c>
       <c r="AI32" s="91">
-        <f>AVERAGE(AI27:AI31)</f>
+        <f t="shared" si="23"/>
         <v>25.2</v>
       </c>
       <c r="AJ32" s="92">
-        <f>AVERAGE(AJ27:AJ31)</f>
+        <f t="shared" si="23"/>
         <v>64.599999999999994</v>
       </c>
       <c r="AK32" s="93">
-        <f>AVERAGE(AK27:AK31)</f>
+        <f t="shared" si="23"/>
         <v>171.4</v>
       </c>
       <c r="AL32" s="91">
-        <f>AVERAGE(AL27:AL31)</f>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="AM32" s="92">
-        <f>AVERAGE(AM27:AM31)</f>
+        <f t="shared" si="23"/>
         <v>131.4</v>
       </c>
       <c r="AN32" s="93">
-        <f>AVERAGE(AN27:AN31)</f>
+        <f t="shared" si="23"/>
         <v>49.2</v>
       </c>
       <c r="AO32" s="91">
-        <f>AVERAGE(AO27:AO31)</f>
+        <f t="shared" si="23"/>
         <v>12.8</v>
       </c>
       <c r="AP32" s="92">
-        <f>AVERAGE(AP27:AP31)</f>
+        <f t="shared" si="23"/>
         <v>36.4</v>
       </c>
       <c r="AQ32" s="93">
-        <f>AVERAGE(AQ27:AQ31)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="AR32" s="91">
-        <f>AVERAGE(AR27:AR31)</f>
+        <f t="shared" si="23"/>
         <v>14.8</v>
       </c>
       <c r="AS32" s="92">
-        <f>AVERAGE(AS27:AS31)</f>
+        <f t="shared" si="23"/>
         <v>55.2</v>
       </c>
       <c r="AT32" s="71">
-        <f>AVERAGE(AT27:AT31)</f>
+        <f t="shared" si="23"/>
         <v>0.67080000000000006</v>
       </c>
       <c r="AU32" s="72">
-        <f>AVERAGE(AU27:AU31)</f>
+        <f t="shared" si="23"/>
         <v>0.36840000000000001</v>
       </c>
       <c r="AV32" s="73">
-        <f>AVERAGE(AV27:AV31)</f>
+        <f t="shared" si="23"/>
         <v>0.70700000000000007</v>
       </c>
       <c r="AW32" s="71">
-        <f>AVERAGE(AW27:AW31)</f>
+        <f t="shared" si="23"/>
         <v>0.4864</v>
       </c>
       <c r="AX32" s="72">
-        <f>AVERAGE(AX27:AX31)</f>
+        <f t="shared" si="23"/>
         <v>0.312</v>
       </c>
       <c r="AY32" s="73">
-        <f>AVERAGE(AY27:AY31)</f>
+        <f t="shared" si="23"/>
         <v>0.51460000000000006</v>
       </c>
       <c r="AZ32" s="74">
-        <f>AVERAGE(AZ27:AZ31)</f>
+        <f t="shared" si="23"/>
         <v>0.64399999999999991</v>
       </c>
       <c r="BA32" s="74">
-        <f>AVERAGE(BA27:BA31)</f>
+        <f t="shared" si="23"/>
         <v>0.6359999999999999</v>
       </c>
       <c r="BB32" s="74">
-        <f>AVERAGE(BB27:BB31)</f>
+        <f t="shared" si="23"/>
         <v>-0.39133999999999997</v>
       </c>
       <c r="BC32" s="74">
-        <f>AVERAGE(BC27:BC31)</f>
+        <f t="shared" si="23"/>
         <v>-0.20536000000000004</v>
       </c>
       <c r="BD32" s="74">
-        <f>AVERAGE(BD27:BD31)</f>
+        <f t="shared" si="23"/>
         <v>-0.29771999999999998</v>
       </c>
       <c r="BE32" s="74">
-        <f>AVERAGE(BE27:BE31)</f>
+        <f t="shared" si="23"/>
         <v>-0.14254</v>
       </c>
       <c r="BF32" s="74">
-        <f>AVERAGE(BF27:BF31)</f>
+        <f t="shared" si="23"/>
         <v>-0.27245999999999998</v>
       </c>
       <c r="BG32" s="75">
-        <f>AVERAGE(BG27:BG31)</f>
+        <f t="shared" si="23"/>
         <v>-0.14204</v>
       </c>
       <c r="BH32" s="74">
-        <f>AVERAGE(BH27:BH31)</f>
+        <f t="shared" si="23"/>
         <v>21.495999999999999</v>
       </c>
       <c r="BI32" s="75">
-        <f>AVERAGE(BI27:BI31)</f>
+        <f t="shared" si="23"/>
         <v>20.445999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A33" s="157" t="s">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A33" s="179" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="40">
@@ -12772,8 +15231,8 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A34" s="158"/>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A34" s="180"/>
       <c r="B34" s="19">
         <v>0.66700000000000004</v>
       </c>
@@ -12955,8 +15414,8 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A35" s="158"/>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A35" s="180"/>
       <c r="B35" s="19">
         <v>0.64300000000000002</v>
       </c>
@@ -13138,8 +15597,8 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A36" s="158"/>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A36" s="180"/>
       <c r="B36" s="19">
         <v>0.64</v>
       </c>
@@ -13321,8 +15780,8 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A37" s="158"/>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A37" s="180"/>
       <c r="B37" s="19">
         <v>0.63</v>
       </c>
@@ -13504,295 +15963,264 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="38" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159"/>
+    <row r="38" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="181"/>
       <c r="B38" s="76">
-        <f>AVERAGE(B33:B37)</f>
+        <f t="shared" ref="B38:M38" si="24">AVERAGE(B33:B37)</f>
         <v>0.65659999999999996</v>
       </c>
       <c r="C38" s="76">
-        <f>AVERAGE(C33:C37)</f>
+        <f t="shared" si="24"/>
         <v>0.65</v>
       </c>
       <c r="D38" s="77">
-        <f>AVERAGE(D33:D37)</f>
+        <f t="shared" si="24"/>
         <v>0.65800000000000003</v>
       </c>
       <c r="E38" s="76">
-        <f>AVERAGE(E33:E37)</f>
+        <f t="shared" si="24"/>
         <v>0.70640000000000003</v>
       </c>
       <c r="F38" s="76">
-        <f>AVERAGE(F33:F37)</f>
+        <f t="shared" si="24"/>
         <v>0.79080000000000006</v>
       </c>
       <c r="G38" s="77">
-        <f>AVERAGE(G33:G37)</f>
+        <f t="shared" si="24"/>
         <v>0.68540000000000012</v>
       </c>
       <c r="H38" s="76">
-        <f>AVERAGE(H33:H37)</f>
+        <f t="shared" si="24"/>
         <v>0.34340000000000004</v>
       </c>
       <c r="I38" s="76">
-        <f>AVERAGE(I33:I37)</f>
+        <f t="shared" si="24"/>
         <v>0.35</v>
       </c>
       <c r="J38" s="77">
-        <f>AVERAGE(J33:J37)</f>
+        <f t="shared" si="24"/>
         <v>0.34199999999999997</v>
       </c>
       <c r="K38" s="76">
-        <f>AVERAGE(K33:K37)</f>
+        <f t="shared" si="24"/>
         <v>0.29359999999999997</v>
       </c>
       <c r="L38" s="78">
-        <f>AVERAGE(L33:L37)</f>
+        <f t="shared" si="24"/>
         <v>0.2092</v>
       </c>
       <c r="M38" s="77">
-        <f>AVERAGE(M33:M37)</f>
+        <f t="shared" si="24"/>
         <v>0.31459999999999999</v>
       </c>
-      <c r="N38" s="163" t="s">
+      <c r="N38" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="164" t="s">
+      <c r="O38" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="P38" s="164" t="s">
+      <c r="P38" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="Q38" s="164" t="s">
+      <c r="Q38" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="R38" s="164" t="s">
+      <c r="R38" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="S38" s="164" t="s">
+      <c r="S38" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="T38" s="164" t="s">
+      <c r="T38" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="U38" s="166" t="s">
+      <c r="U38" s="132" t="s">
         <v>83</v>
       </c>
       <c r="V38" s="98">
-        <f>AVERAGE(V33:V37)</f>
+        <f t="shared" ref="V38:BI38" si="25">AVERAGE(V33:V37)</f>
         <v>102.4</v>
       </c>
       <c r="W38" s="106">
-        <f>AVERAGE(W33:W37)</f>
+        <f t="shared" si="25"/>
         <v>10.8</v>
       </c>
       <c r="X38" s="97">
-        <f>AVERAGE(X33:X37)</f>
+        <f t="shared" si="25"/>
         <v>91.6</v>
       </c>
       <c r="Y38" s="95">
-        <f>AVERAGE(Y33:Y37)</f>
+        <f t="shared" si="25"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Z38" s="96">
-        <f>AVERAGE(Z33:Z37)</f>
+        <f t="shared" si="25"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="AA38" s="97">
-        <f>AVERAGE(AA33:AA37)</f>
+        <f t="shared" si="25"/>
         <v>35.799999999999997</v>
       </c>
       <c r="AB38" s="95">
-        <f>AVERAGE(AB33:AB37)</f>
+        <f t="shared" si="25"/>
         <v>46</v>
       </c>
       <c r="AC38" s="96">
-        <f>AVERAGE(AC33:AC37)</f>
+        <f t="shared" si="25"/>
         <v>8.6</v>
       </c>
       <c r="AD38" s="97">
-        <f>AVERAGE(AD33:AD37)</f>
+        <f t="shared" si="25"/>
         <v>37.4</v>
       </c>
       <c r="AE38" s="95">
-        <f>AVERAGE(AE33:AE37)</f>
+        <f t="shared" si="25"/>
         <v>16.8</v>
       </c>
       <c r="AF38" s="96">
-        <f>AVERAGE(AF33:AF37)</f>
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
       <c r="AG38" s="97">
-        <f>AVERAGE(AG33:AG37)</f>
+        <f t="shared" si="25"/>
         <v>16.399999999999999</v>
       </c>
       <c r="AH38" s="95">
-        <f>AVERAGE(AH33:AH37)</f>
+        <f t="shared" si="25"/>
         <v>94.6</v>
       </c>
       <c r="AI38" s="96">
-        <f>AVERAGE(AI33:AI37)</f>
+        <f t="shared" si="25"/>
         <v>25.2</v>
       </c>
       <c r="AJ38" s="97">
-        <f>AVERAGE(AJ33:AJ37)</f>
+        <f t="shared" si="25"/>
         <v>69.400000000000006</v>
       </c>
       <c r="AK38" s="95">
-        <f>AVERAGE(AK33:AK37)</f>
+        <f t="shared" si="25"/>
         <v>171.8</v>
       </c>
       <c r="AL38" s="96">
-        <f>AVERAGE(AL33:AL37)</f>
+        <f t="shared" si="25"/>
         <v>43.2</v>
       </c>
       <c r="AM38" s="97">
-        <f>AVERAGE(AM33:AM37)</f>
+        <f t="shared" si="25"/>
         <v>128.6</v>
       </c>
       <c r="AN38" s="95">
-        <f>AVERAGE(AN33:AN37)</f>
+        <f t="shared" si="25"/>
         <v>57</v>
       </c>
       <c r="AO38" s="96">
-        <f>AVERAGE(AO33:AO37)</f>
+        <f t="shared" si="25"/>
         <v>10.6</v>
       </c>
       <c r="AP38" s="97">
-        <f>AVERAGE(AP33:AP37)</f>
+        <f t="shared" si="25"/>
         <v>46.4</v>
       </c>
       <c r="AQ38" s="95">
-        <f>AVERAGE(AQ33:AQ37)</f>
+        <f t="shared" si="25"/>
         <v>71.2</v>
       </c>
       <c r="AR38" s="96">
-        <f>AVERAGE(AR33:AR37)</f>
+        <f t="shared" si="25"/>
         <v>12.2</v>
       </c>
       <c r="AS38" s="97">
-        <f>AVERAGE(AS33:AS37)</f>
+        <f t="shared" si="25"/>
         <v>59</v>
       </c>
       <c r="AT38" s="76">
-        <f>AVERAGE(AT33:AT37)</f>
+        <f t="shared" si="25"/>
         <v>0.66560000000000008</v>
       </c>
       <c r="AU38" s="78">
-        <f>AVERAGE(AU33:AU37)</f>
+        <f t="shared" si="25"/>
         <v>0.52799999999999991</v>
       </c>
       <c r="AV38" s="77">
-        <f>AVERAGE(AV33:AV37)</f>
+        <f t="shared" si="25"/>
         <v>0.6866000000000001</v>
       </c>
       <c r="AW38" s="76">
-        <f>AVERAGE(AW33:AW37)</f>
+        <f t="shared" si="25"/>
         <v>0.47539999999999993</v>
       </c>
       <c r="AX38" s="78">
-        <f>AVERAGE(AX33:AX37)</f>
+        <f t="shared" si="25"/>
         <v>0.39060000000000006</v>
       </c>
       <c r="AY38" s="77">
-        <f>AVERAGE(AY33:AY37)</f>
+        <f t="shared" si="25"/>
         <v>0.48559999999999998</v>
       </c>
       <c r="AZ38" s="79">
-        <f>AVERAGE(AZ33:AZ37)</f>
+        <f t="shared" si="25"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="BA38" s="79">
-        <f>AVERAGE(BA33:BA37)</f>
+        <f t="shared" si="25"/>
         <v>0.624</v>
       </c>
       <c r="BB38" s="79">
-        <f>AVERAGE(BB33:BB37)</f>
+        <f t="shared" si="25"/>
         <v>-0.15940000000000001</v>
       </c>
       <c r="BC38" s="79">
-        <f>AVERAGE(BC33:BC37)</f>
+        <f t="shared" si="25"/>
         <v>-0.12048</v>
       </c>
       <c r="BD38" s="79">
-        <f>AVERAGE(BD33:BD37)</f>
+        <f t="shared" si="25"/>
         <v>-0.17431999999999997</v>
       </c>
       <c r="BE38" s="79">
-        <f>AVERAGE(BE33:BE37)</f>
+        <f t="shared" si="25"/>
         <v>-0.13567999999999997</v>
       </c>
       <c r="BF38" s="79">
-        <f>AVERAGE(BF33:BF37)</f>
+        <f t="shared" si="25"/>
         <v>-0.12458</v>
       </c>
       <c r="BG38" s="79">
-        <f>AVERAGE(BG33:BG37)</f>
+        <f t="shared" si="25"/>
         <v>-0.11191999999999999</v>
       </c>
       <c r="BH38" s="79">
-        <f>AVERAGE(BH33:BH37)</f>
+        <f t="shared" si="25"/>
         <v>36.047999999999995</v>
       </c>
       <c r="BI38" s="80">
-        <f>AVERAGE(BI33:BI37)</f>
+        <f t="shared" si="25"/>
         <v>35.308</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AY39" s="65"/>
       <c r="BG39" s="66"/>
       <c r="BH39" s="66"/>
       <c r="BI39" s="66"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
       <c r="I41" s="66"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BI1:BI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
@@ -13801,6 +16229,37 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/results/all_results.xlsx
+++ b/experiments/results/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3BA05B-3F68-46EF-9CF4-6FF9422850A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25658ED9-6A95-4F93-A905-41DD860F6B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="684" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="96">
   <si>
     <t>Model</t>
   </si>
@@ -306,13 +306,25 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>64</t>
+    <t>.003</t>
   </si>
   <si>
-    <t>na</t>
+    <t>50</t>
   </si>
   <si>
-    <t>.002</t>
+    <t>.001</t>
+  </si>
+  <si>
+    <t>weight decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam </t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>.005</t>
   </si>
 </sst>
 </file>
@@ -976,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,6 +1470,27 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,7 +1500,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1476,28 +1521,55 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,64 +1581,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,115 +1914,115 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AF1" sqref="AF1:AH38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="18" width="6" style="16" customWidth="1"/>
     <col min="19" max="30" width="6" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="11.109375" style="31" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11.140625" style="31" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5" customWidth="1"/>
-    <col min="38" max="38" width="6.6640625" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" customWidth="1"/>
     <col min="39" max="39" width="6" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="41" max="41" width="7.109375" customWidth="1"/>
-    <col min="42" max="42" width="6.109375" customWidth="1"/>
+    <col min="41" max="41" width="7.140625" customWidth="1"/>
+    <col min="42" max="42" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="165" t="s">
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="168" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="168" t="s">
+      <c r="I1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="168" t="s">
+      <c r="J1" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="168" t="s">
+      <c r="L1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="168" t="s">
+      <c r="M1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="168" t="s">
+      <c r="N1" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="168" t="s">
+      <c r="O1" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="173" t="s">
+      <c r="P1" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="165" t="s">
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="165" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="166"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="165" t="s">
+      <c r="W1" s="173"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="165" t="s">
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="168" t="s">
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="169" t="s">
+      <c r="AF1" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="169" t="s">
+      <c r="AG1" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="169" t="s">
+      <c r="AH1" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="168" t="s">
+      <c r="AI1" s="171" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="176"/>
       <c r="B2" s="23" t="s">
         <v>60</v>
       </c>
@@ -2014,14 +2041,14 @@
       <c r="G2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
       <c r="P2" s="23" t="s">
         <v>60</v>
       </c>
@@ -2067,14 +2094,14 @@
       <c r="AD2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="170"/>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="168"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="171"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3" s="176" t="s">
+    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="168" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -2180,8 +2207,8 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4" s="177"/>
+    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="169"/>
       <c r="B4" s="4">
         <v>0.65600000000000003</v>
       </c>
@@ -2285,8 +2312,8 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="169"/>
       <c r="B5" s="4">
         <v>0.69</v>
       </c>
@@ -2390,8 +2417,8 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="169"/>
       <c r="B6" s="4">
         <v>0.71799999999999997</v>
       </c>
@@ -2495,8 +2522,8 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
+    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="169"/>
       <c r="B7" s="4">
         <v>0.66700000000000004</v>
       </c>
@@ -2600,8 +2627,8 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A8" s="178"/>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="170"/>
       <c r="B8" s="8">
         <f t="shared" ref="B8:G8" si="0">AVERAGE(B3:B7)</f>
         <v>0.68399999999999994</v>
@@ -2731,8 +2758,8 @@
         <v>7.5860000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A9" s="176" t="s">
+    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="168" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="19">
@@ -2838,8 +2865,8 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
+    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="169"/>
       <c r="B10" s="19">
         <v>0.71199999999999997</v>
       </c>
@@ -2943,8 +2970,8 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
+    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="169"/>
       <c r="B11" s="19">
         <v>0.69699999999999995</v>
       </c>
@@ -3048,8 +3075,8 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A12" s="177"/>
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="169"/>
       <c r="B12" s="19">
         <v>0.7</v>
       </c>
@@ -3160,8 +3187,8 @@
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A13" s="177"/>
+    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="169"/>
       <c r="B13" s="19">
         <v>0.69699999999999995</v>
       </c>
@@ -3272,8 +3299,8 @@
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A14" s="178"/>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="170"/>
       <c r="B14" s="32">
         <f>AVERAGE(B9:B13)</f>
         <v>0.7026</v>
@@ -3410,8 +3437,8 @@
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="168" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -3524,8 +3551,8 @@
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="169"/>
       <c r="B16" s="2">
         <v>0.7</v>
       </c>
@@ -3636,8 +3663,8 @@
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
+    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="169"/>
       <c r="B17" s="2">
         <v>0.69199999999999995</v>
       </c>
@@ -3748,8 +3775,8 @@
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A18" s="177"/>
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="169"/>
       <c r="B18" s="2">
         <v>0.68700000000000006</v>
       </c>
@@ -3860,8 +3887,8 @@
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
+    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="169"/>
       <c r="B19" s="2">
         <v>0.67600000000000005</v>
       </c>
@@ -3972,8 +3999,8 @@
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="170"/>
       <c r="B20" s="5">
         <f>AVERAGE(B15:B19)</f>
         <v>0.68559999999999999</v>
@@ -4110,8 +4137,8 @@
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A21" s="176" t="s">
+    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="168" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2">
@@ -4224,8 +4251,8 @@
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
+    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="169"/>
       <c r="B22" s="2">
         <v>0.72399999999999998</v>
       </c>
@@ -4336,8 +4363,8 @@
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
+    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="169"/>
       <c r="B23" s="2">
         <v>0.72399999999999998</v>
       </c>
@@ -4448,8 +4475,8 @@
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
+    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="169"/>
       <c r="B24" s="2">
         <v>0.66600000000000004</v>
       </c>
@@ -4560,8 +4587,8 @@
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
+    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="169"/>
       <c r="B25" s="2">
         <v>0.72899999999999998</v>
       </c>
@@ -4672,8 +4699,8 @@
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="170"/>
       <c r="B26" s="32">
         <f>AVERAGE(B21:B25)</f>
         <v>0.7095999999999999</v>
@@ -4810,8 +4837,8 @@
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A27" s="176" t="s">
+    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="168" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="2">
@@ -4924,8 +4951,8 @@
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="169"/>
       <c r="B28" s="2">
         <v>0.68600000000000005</v>
       </c>
@@ -5036,8 +5063,8 @@
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
+    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="169"/>
       <c r="B29" s="2">
         <v>0.68899999999999995</v>
       </c>
@@ -5148,8 +5175,8 @@
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A30" s="177"/>
+    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="169"/>
       <c r="B30" s="2">
         <v>0.67900000000000005</v>
       </c>
@@ -5260,8 +5287,8 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="169"/>
       <c r="B31" s="2">
         <v>0.67400000000000004</v>
       </c>
@@ -5372,8 +5399,8 @@
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A32" s="178"/>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" s="170"/>
       <c r="B32" s="5">
         <f>AVERAGE(B27:B31)</f>
         <v>0.69120000000000004</v>
@@ -5510,8 +5537,8 @@
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A33" s="168" t="s">
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="171" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="4">
@@ -5624,8 +5651,8 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A34" s="168"/>
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="171"/>
       <c r="B34" s="4">
         <v>0.66600000000000004</v>
       </c>
@@ -5736,8 +5763,8 @@
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A35" s="168"/>
+    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="171"/>
       <c r="B35" s="4">
         <v>0.71</v>
       </c>
@@ -5848,8 +5875,8 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A36" s="168"/>
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="171"/>
       <c r="B36" s="4">
         <v>0.71199999999999997</v>
       </c>
@@ -5960,8 +5987,8 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A37" s="168"/>
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="171"/>
       <c r="B37" s="4">
         <v>0.68400000000000005</v>
       </c>
@@ -6072,8 +6099,8 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A38" s="168"/>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="171"/>
       <c r="B38" s="32">
         <f>AVERAGE(B33:B37)</f>
         <v>0.69640000000000002</v>
@@ -6210,7 +6237,7 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AK39" s="6"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
@@ -6219,7 +6246,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AK40" s="6"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
@@ -6228,7 +6255,7 @@
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="S41" s="31"/>
       <c r="AK41" s="6"/>
       <c r="AL41" s="7"/>
@@ -6238,7 +6265,7 @@
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AK42" s="6"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
@@ -6247,7 +6274,7 @@
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AK43" s="6"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
@@ -6261,12 +6288,14 @@
     <sortCondition descending="1" ref="AK27:AK31"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:G1"/>
@@ -6280,14 +6309,12 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6297,123 +6324,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2674552-2241-4FC5-827F-03365368C2DE}">
-  <dimension ref="A1:AR43"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AJ8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="6" style="16" customWidth="1"/>
-    <col min="20" max="31" width="6" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="11.109375" style="31" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" customWidth="1"/>
-    <col min="40" max="40" width="6" customWidth="1"/>
-    <col min="41" max="41" width="9" customWidth="1"/>
-    <col min="42" max="42" width="7.109375" customWidth="1"/>
-    <col min="43" max="43" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="6" style="16" customWidth="1"/>
+    <col min="21" max="32" width="6" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="11.140625" style="31" customWidth="1"/>
+    <col min="37" max="37" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" customWidth="1"/>
+    <col min="40" max="40" width="6.7109375" customWidth="1"/>
+    <col min="41" max="41" width="6" customWidth="1"/>
+    <col min="42" max="42" width="9" customWidth="1"/>
+    <col min="43" max="43" width="7.140625" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="165" t="s">
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="168" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="168" t="s">
+      <c r="K1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="168" t="s">
+      <c r="L1" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="168" t="s">
+      <c r="M1" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="168" t="s">
+      <c r="N1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="168" t="s">
+      <c r="O1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="168" t="s">
+      <c r="P1" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="168" t="s">
+      <c r="Q1" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="173" t="s">
+      <c r="R1" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="174"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="165" t="s">
+      <c r="S1" s="178"/>
+      <c r="T1" s="179"/>
+      <c r="U1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="166"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="165" t="s">
+      <c r="V1" s="173"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="165" t="s">
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="165" t="s">
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168" t="s">
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="169" t="s">
+      <c r="AH1" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="169" t="s">
+      <c r="AI1" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="169" t="s">
+      <c r="AJ1" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="168" t="s">
+      <c r="AK1" s="171" t="s">
         <v>13</v>
       </c>
+      <c r="AM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="176"/>
       <c r="B2" s="126" t="s">
         <v>60</v>
       </c>
@@ -6432,498 +6472,521 @@
       <c r="G2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="168"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="126" t="s">
+      <c r="H2" s="171"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="126" t="s">
+      <c r="S2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="126" t="s">
+      <c r="T2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="126" t="s">
+      <c r="U2" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="126" t="s">
+      <c r="V2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="126" t="s">
+      <c r="W2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="126" t="s">
+      <c r="X2" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="126" t="s">
+      <c r="Y2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="126" t="s">
+      <c r="Z2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="126" t="s">
+      <c r="AA2" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="126" t="s">
+      <c r="AB2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="126" t="s">
+      <c r="AC2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="126" t="s">
+      <c r="AD2" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="126" t="s">
+      <c r="AE2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="126" t="s">
+      <c r="AF2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="170"/>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="170"/>
-      <c r="AJ2" s="168"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="181"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="171"/>
     </row>
-    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="176" t="s">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="126">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="C3" s="126">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D3" s="126">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E3" s="126">
-        <v>0.437</v>
-      </c>
-      <c r="F3" s="126">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G3" s="126">
-        <v>0.45600000000000002</v>
-      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
       <c r="H3" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="126">
-        <v>50</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="201">
+      <c r="I3" s="166">
+        <v>0</v>
+      </c>
+      <c r="J3" s="126">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="167">
         <v>1E-8</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="N3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="17">
-        <v>6</v>
-      </c>
-      <c r="R3" s="17">
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="126"/>
+      <c r="AM3">
+        <v>-0.30980000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>-0.224</v>
+      </c>
+      <c r="AO3">
+        <v>-0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="169"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="166">
         <v>0</v>
       </c>
-      <c r="S3" s="17">
-        <v>6</v>
-      </c>
-      <c r="T3" s="126">
+      <c r="J4" s="166">
+        <v>10</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="167">
+        <v>1E-8</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="126"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="169"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="166">
         <v>0</v>
       </c>
-      <c r="U3" s="126">
-        <v>0</v>
-      </c>
-      <c r="V3" s="126">
-        <v>0</v>
-      </c>
-      <c r="W3" s="126">
-        <v>163</v>
-      </c>
-      <c r="X3" s="126">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="126">
-        <v>123</v>
-      </c>
-      <c r="Z3" s="126">
-        <v>131</v>
-      </c>
-      <c r="AA3" s="126">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="126">
-        <v>108</v>
-      </c>
-      <c r="AC3" s="126">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AD3" s="126">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="126">
-        <v>0.1</v>
-      </c>
-      <c r="AF3" s="126">
-        <v>0.52</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>-5.2600000000000001E-2</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>-2.53E-2</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>-2.63E-2</v>
-      </c>
-      <c r="AJ3" s="126">
-        <v>12.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="177"/>
-      <c r="B4" s="127">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="C4" s="127">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D4" s="127">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E4" s="127">
-        <v>0.437</v>
-      </c>
-      <c r="F4" s="127">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G4" s="126">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="17">
-        <v>6</v>
-      </c>
-      <c r="R4" s="17">
-        <v>0</v>
-      </c>
-      <c r="S4" s="17">
-        <v>6</v>
-      </c>
-      <c r="T4" s="126">
-        <v>0</v>
-      </c>
-      <c r="U4" s="126">
-        <v>0</v>
-      </c>
-      <c r="V4" s="126">
-        <v>0</v>
-      </c>
-      <c r="W4" s="126">
-        <v>163</v>
-      </c>
-      <c r="X4" s="126">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="126">
-        <v>123</v>
-      </c>
-      <c r="Z4" s="126">
-        <v>131</v>
-      </c>
-      <c r="AA4" s="126">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="126">
-        <v>108</v>
-      </c>
-      <c r="AC4" s="126">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AD4" s="126">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="126">
-        <v>0.1</v>
-      </c>
-      <c r="AF4" s="126">
-        <v>0.52</v>
-      </c>
-      <c r="AG4" s="28">
-        <v>-5.2600000000000001E-2</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>-2.53E-2</v>
-      </c>
-      <c r="AI4" s="28">
-        <v>-2.63E-2</v>
-      </c>
-      <c r="AJ4" s="126">
-        <v>12.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="17"/>
+      <c r="J5" s="166">
+        <v>10</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="167">
+        <v>1E-8</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="28"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
-      <c r="AJ5" s="126"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="126"/>
     </row>
-    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="17"/>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="169"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="166">
+        <v>0</v>
+      </c>
+      <c r="J6" s="166">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="167">
+        <v>1E-8</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="28"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="166"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
-      <c r="AJ6" s="126"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="126"/>
     </row>
-    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="17"/>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="169"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="166">
+        <v>0</v>
+      </c>
+      <c r="J7" s="166">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="167">
+        <v>1E-8</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="28"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="166"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
-      <c r="AJ7" s="126"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="126"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" s="178"/>
-      <c r="B8" s="8">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="170"/>
+      <c r="B8" s="8" t="e">
         <f t="shared" ref="B8:G8" si="0">AVERAGE(B3:B7)</f>
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="C8" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D8" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E8" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.437</v>
-      </c>
-      <c r="F8" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="18">
-        <f>AVERAGE(Q3:Q7)</f>
-        <v>6</v>
-      </c>
-      <c r="R8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="204">
+        <v>1E-8</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="18" t="e">
         <f>AVERAGE(R3:R7)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" s="18" t="e">
         <f>AVERAGE(S3:S7)</f>
-        <v>6</v>
-      </c>
-      <c r="T8" s="18">
-        <f t="shared" ref="T8:AJ8" si="1">AVERAGE(T3:T7)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="18" t="e">
+        <f>AVERAGE(T3:T7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="18" t="e">
+        <f t="shared" ref="U8:AK8" si="1">AVERAGE(U3:U7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>163</v>
-      </c>
-      <c r="X8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="Y8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="Z8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="AA8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AB8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="AC8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AD8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AF8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="AG8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH8" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>-5.2600000000000001E-2</v>
-      </c>
-      <c r="AH8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI8" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>-2.53E-2</v>
-      </c>
-      <c r="AI8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ8" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>-2.63E-2</v>
-      </c>
-      <c r="AJ8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK8" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>12.7</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM8">
+        <v>-0.28806500000000002</v>
+      </c>
+      <c r="AN8">
+        <v>-0.21792500000000001</v>
+      </c>
+      <c r="AO8">
+        <v>-0.19303999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" s="176" t="s">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="168" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="19"/>
@@ -6932,19 +6995,39 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="21"/>
+      <c r="H9" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J9" s="166">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="20"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
@@ -6957,32 +7040,53 @@
       <c r="AD9" s="20"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
-      <c r="AG9" s="30"/>
+      <c r="AG9" s="20"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
-      <c r="AJ9" s="20"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="20"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="169"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="21"/>
+      <c r="H10" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J10" s="166">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="20"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
@@ -6995,32 +7099,53 @@
       <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
-      <c r="AG10" s="30"/>
+      <c r="AG10" s="20"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
-      <c r="AJ10" s="20"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="20"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="169"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="21"/>
+      <c r="H11" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J11" s="166">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="20"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
@@ -7033,32 +7158,53 @@
       <c r="AD11" s="20"/>
       <c r="AE11" s="20"/>
       <c r="AF11" s="20"/>
-      <c r="AG11" s="30"/>
+      <c r="AG11" s="20"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="30"/>
-      <c r="AJ11" s="20"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="20"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="177"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="169"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="21"/>
+      <c r="H12" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J12" s="166">
+        <v>10</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="20"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -7071,39 +7217,60 @@
       <c r="AD12" s="20"/>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
-      <c r="AG12" s="30"/>
+      <c r="AG12" s="20"/>
       <c r="AH12" s="30"/>
       <c r="AI12" s="30"/>
-      <c r="AJ12" s="20"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="7"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="20"/>
+      <c r="AM12" s="6"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="177"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="169"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="21"/>
+      <c r="H13" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J13" s="166">
+        <v>10</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="20"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -7116,26 +7283,27 @@
       <c r="AD13" s="20"/>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
-      <c r="AG13" s="30"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
-      <c r="AJ13" s="20"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="7"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="20"/>
+      <c r="AM13" s="6"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="178"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="170"/>
       <c r="B14" s="32" t="e">
         <f>AVERAGE(B9:B13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C14" s="32" t="e">
-        <f t="shared" ref="C14:AJ14" si="2">AVERAGE(C9:C13)</f>
+        <f t="shared" ref="C14:AK14" si="2">AVERAGE(C9:C13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D14" s="32" t="e">
@@ -7154,18 +7322,35 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="H14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="33">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J14" s="33">
+        <v>10</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="R14" s="32" t="e">
         <f t="shared" si="2"/>
@@ -7227,7 +7412,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="36" t="e">
+      <c r="AG14" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7239,20 +7424,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="32" t="e">
+      <c r="AJ14" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="7"/>
+      <c r="AK14" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>-0.18233300000000002</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>-0.185085</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>-0.14580799999999999</v>
+      </c>
+      <c r="AP14" s="6"/>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="168" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="126"/>
@@ -7261,19 +7456,39 @@
       <c r="E15" s="126"/>
       <c r="F15" s="126"/>
       <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="17"/>
+      <c r="H15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>10</v>
+      </c>
+      <c r="K15" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="206">
+        <v>1E-8</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="126"/>
+      <c r="T15" s="17"/>
       <c r="U15" s="126"/>
       <c r="V15" s="126"/>
       <c r="W15" s="126"/>
@@ -7286,39 +7501,60 @@
       <c r="AD15" s="126"/>
       <c r="AE15" s="126"/>
       <c r="AF15" s="126"/>
-      <c r="AG15" s="28"/>
+      <c r="AG15" s="126"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
-      <c r="AJ15" s="126"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="7"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="126"/>
+      <c r="AM15" s="6"/>
       <c r="AN15" s="7"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="6"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="169"/>
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
       <c r="E16" s="126"/>
       <c r="F16" s="126"/>
       <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="17"/>
+      <c r="H16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>10</v>
+      </c>
+      <c r="K16" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="206">
+        <v>1E-8</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="126"/>
+      <c r="T16" s="17"/>
       <c r="U16" s="126"/>
       <c r="V16" s="126"/>
       <c r="W16" s="126"/>
@@ -7331,39 +7567,60 @@
       <c r="AD16" s="126"/>
       <c r="AE16" s="126"/>
       <c r="AF16" s="126"/>
-      <c r="AG16" s="28"/>
+      <c r="AG16" s="126"/>
       <c r="AH16" s="28"/>
       <c r="AI16" s="28"/>
-      <c r="AJ16" s="126"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="7"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="126"/>
+      <c r="AM16" s="6"/>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="6"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="169"/>
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
       <c r="E17" s="126"/>
       <c r="F17" s="126"/>
       <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="17"/>
+      <c r="H17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>10</v>
+      </c>
+      <c r="K17" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="206">
+        <v>1E-8</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="126"/>
+      <c r="T17" s="17"/>
       <c r="U17" s="126"/>
       <c r="V17" s="126"/>
       <c r="W17" s="126"/>
@@ -7376,39 +7633,60 @@
       <c r="AD17" s="126"/>
       <c r="AE17" s="126"/>
       <c r="AF17" s="126"/>
-      <c r="AG17" s="28"/>
+      <c r="AG17" s="126"/>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
-      <c r="AJ17" s="126"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="7"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="126"/>
+      <c r="AM17" s="6"/>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="6"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A18" s="177"/>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="169"/>
       <c r="B18" s="126"/>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
       <c r="E18" s="126"/>
       <c r="F18" s="126"/>
       <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="17"/>
+      <c r="H18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>10</v>
+      </c>
+      <c r="K18" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="206">
+        <v>1E-8</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="126"/>
+      <c r="T18" s="17"/>
       <c r="U18" s="126"/>
       <c r="V18" s="126"/>
       <c r="W18" s="126"/>
@@ -7421,39 +7699,60 @@
       <c r="AD18" s="126"/>
       <c r="AE18" s="126"/>
       <c r="AF18" s="126"/>
-      <c r="AG18" s="28"/>
+      <c r="AG18" s="126"/>
       <c r="AH18" s="28"/>
       <c r="AI18" s="28"/>
-      <c r="AJ18" s="126"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="7"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="126"/>
+      <c r="AM18" s="6"/>
       <c r="AN18" s="7"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="6"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" s="169"/>
       <c r="B19" s="126"/>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
       <c r="E19" s="126"/>
       <c r="F19" s="126"/>
       <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="17"/>
+      <c r="H19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>10</v>
+      </c>
+      <c r="K19" s="205" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="206">
+        <v>1E-8</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="126"/>
+      <c r="T19" s="17"/>
       <c r="U19" s="126"/>
       <c r="V19" s="126"/>
       <c r="W19" s="126"/>
@@ -7466,20 +7765,21 @@
       <c r="AD19" s="126"/>
       <c r="AE19" s="126"/>
       <c r="AF19" s="126"/>
-      <c r="AG19" s="28"/>
+      <c r="AG19" s="126"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
-      <c r="AJ19" s="126"/>
-      <c r="AL19" s="7"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="126"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20" s="170"/>
       <c r="B20" s="5" t="e">
         <f>AVERAGE(B15:B19)</f>
         <v>#DIV/0!</v>
@@ -7504,25 +7804,42 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="18" t="e">
-        <f>AVERAGE(Q15:Q19)</f>
+      <c r="H20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="204">
+        <v>1E-8</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="18" t="e">
+        <f>AVERAGE(R15:R19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="18" t="e">
-        <f t="shared" ref="R20:AJ20" si="4">AVERAGE(R15:R19)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="S20" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S20:AK20" si="4">AVERAGE(S15:S19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T20" s="18" t="e">
@@ -7577,7 +7894,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG20" s="29" t="e">
+      <c r="AG20" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -7589,20 +7906,30 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ20" s="18" t="e">
+      <c r="AJ20" s="29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="7"/>
+      <c r="AK20" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>-0.23696</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>-0.25305999999999995</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>-0.20334000000000002</v>
+      </c>
+      <c r="AP20" s="6"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A21" s="176" t="s">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" s="168" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="126"/>
@@ -7611,19 +7938,39 @@
       <c r="E21" s="126"/>
       <c r="F21" s="126"/>
       <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="17"/>
+      <c r="H21" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J21" s="126">
+        <v>20</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="126"/>
+      <c r="T21" s="17"/>
       <c r="U21" s="126"/>
       <c r="V21" s="126"/>
       <c r="W21" s="126"/>
@@ -7636,39 +7983,60 @@
       <c r="AD21" s="126"/>
       <c r="AE21" s="126"/>
       <c r="AF21" s="126"/>
-      <c r="AG21" s="28"/>
+      <c r="AG21" s="126"/>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
-      <c r="AJ21" s="126"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="7"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="126"/>
+      <c r="AM21" s="6"/>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="6"/>
       <c r="AQ21" s="7"/>
       <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="169"/>
       <c r="B22" s="126"/>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
       <c r="E22" s="126"/>
       <c r="F22" s="126"/>
       <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="17"/>
+      <c r="H22" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J22" s="166">
+        <v>20</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="126"/>
+      <c r="T22" s="17"/>
       <c r="U22" s="126"/>
       <c r="V22" s="126"/>
       <c r="W22" s="126"/>
@@ -7681,39 +8049,60 @@
       <c r="AD22" s="126"/>
       <c r="AE22" s="126"/>
       <c r="AF22" s="126"/>
-      <c r="AG22" s="28"/>
+      <c r="AG22" s="126"/>
       <c r="AH22" s="28"/>
       <c r="AI22" s="28"/>
-      <c r="AJ22" s="126"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="7"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="126"/>
+      <c r="AM22" s="6"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="6"/>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="169"/>
       <c r="B23" s="126"/>
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
       <c r="E23" s="126"/>
       <c r="F23" s="126"/>
       <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="17"/>
+      <c r="H23" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J23" s="166">
+        <v>20</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="126"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="126"/>
       <c r="V23" s="126"/>
       <c r="W23" s="126"/>
@@ -7726,39 +8115,60 @@
       <c r="AD23" s="126"/>
       <c r="AE23" s="126"/>
       <c r="AF23" s="126"/>
-      <c r="AG23" s="28"/>
+      <c r="AG23" s="126"/>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="126"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="7"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="126"/>
+      <c r="AM23" s="6"/>
       <c r="AN23" s="7"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="6"/>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="169"/>
       <c r="B24" s="126"/>
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
       <c r="E24" s="126"/>
       <c r="F24" s="126"/>
       <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="17"/>
+      <c r="H24" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J24" s="166">
+        <v>20</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="126"/>
+      <c r="T24" s="17"/>
       <c r="U24" s="126"/>
       <c r="V24" s="126"/>
       <c r="W24" s="126"/>
@@ -7771,39 +8181,60 @@
       <c r="AD24" s="126"/>
       <c r="AE24" s="126"/>
       <c r="AF24" s="126"/>
-      <c r="AG24" s="28"/>
+      <c r="AG24" s="126"/>
       <c r="AH24" s="28"/>
       <c r="AI24" s="28"/>
-      <c r="AJ24" s="126"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="6"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="126"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="7"/>
       <c r="AO24" s="6"/>
-      <c r="AP24" s="7"/>
+      <c r="AP24" s="6"/>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="169"/>
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
       <c r="E25" s="126"/>
       <c r="F25" s="126"/>
       <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="17"/>
+      <c r="H25" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J25" s="166">
+        <v>20</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="126"/>
+      <c r="T25" s="17"/>
       <c r="U25" s="126"/>
       <c r="V25" s="126"/>
       <c r="W25" s="126"/>
@@ -7816,20 +8247,21 @@
       <c r="AD25" s="126"/>
       <c r="AE25" s="126"/>
       <c r="AF25" s="126"/>
-      <c r="AG25" s="28"/>
+      <c r="AG25" s="126"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
-      <c r="AJ25" s="126"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="6"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="126"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="7"/>
       <c r="AO25" s="6"/>
-      <c r="AP25" s="7"/>
+      <c r="AP25" s="6"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="170"/>
       <c r="B26" s="32" t="e">
         <f>AVERAGE(B21:B25)</f>
         <v>#DIV/0!</v>
@@ -7854,25 +8286,42 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="37" t="e">
-        <f>AVERAGE(Q21:Q25)</f>
+      <c r="H26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="33">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J26" s="33">
+        <v>20</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="37" t="e">
+        <f>AVERAGE(R21:R25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="37" t="e">
-        <f t="shared" ref="R26:AJ26" si="6">AVERAGE(R21:R25)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="S26" s="37" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="S26:AK26" si="6">AVERAGE(S21:S25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="37" t="e">
@@ -7927,7 +8376,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="38" t="e">
+      <c r="AG26" s="37" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -7939,20 +8388,30 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ26" s="37" t="e">
+      <c r="AJ26" s="38" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="7"/>
+      <c r="AK26" s="37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM26" s="26">
+        <v>-0.18685999999999997</v>
+      </c>
+      <c r="AN26" s="7">
+        <v>-0.20238</v>
+      </c>
+      <c r="AO26" s="6">
+        <v>-0.16202</v>
+      </c>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A27" s="176" t="s">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" s="168" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="126"/>
@@ -7962,18 +8421,18 @@
       <c r="F27" s="126"/>
       <c r="G27" s="126"/>
       <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="126"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="126"/>
+      <c r="T27" s="17"/>
       <c r="U27" s="126"/>
       <c r="V27" s="126"/>
       <c r="W27" s="126"/>
@@ -7986,20 +8445,21 @@
       <c r="AD27" s="126"/>
       <c r="AE27" s="126"/>
       <c r="AF27" s="126"/>
-      <c r="AG27" s="28"/>
+      <c r="AG27" s="126"/>
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
-      <c r="AJ27" s="126"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="6"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="126"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="7"/>
       <c r="AO27" s="6"/>
-      <c r="AP27" s="7"/>
+      <c r="AP27" s="6"/>
       <c r="AQ27" s="7"/>
       <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="169"/>
       <c r="B28" s="126"/>
       <c r="C28" s="126"/>
       <c r="D28" s="126"/>
@@ -8007,18 +8467,18 @@
       <c r="F28" s="126"/>
       <c r="G28" s="126"/>
       <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="126"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="10"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="126"/>
+      <c r="T28" s="17"/>
       <c r="U28" s="126"/>
       <c r="V28" s="126"/>
       <c r="W28" s="126"/>
@@ -8031,20 +8491,21 @@
       <c r="AD28" s="126"/>
       <c r="AE28" s="126"/>
       <c r="AF28" s="126"/>
-      <c r="AG28" s="28"/>
+      <c r="AG28" s="126"/>
       <c r="AH28" s="28"/>
       <c r="AI28" s="28"/>
-      <c r="AJ28" s="126"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="6"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="126"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="7"/>
       <c r="AO28" s="6"/>
-      <c r="AP28" s="7"/>
+      <c r="AP28" s="6"/>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="169"/>
       <c r="B29" s="126"/>
       <c r="C29" s="126"/>
       <c r="D29" s="126"/>
@@ -8052,18 +8513,18 @@
       <c r="F29" s="126"/>
       <c r="G29" s="126"/>
       <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="126"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="17"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="126"/>
+      <c r="T29" s="17"/>
       <c r="U29" s="126"/>
       <c r="V29" s="126"/>
       <c r="W29" s="126"/>
@@ -8076,20 +8537,21 @@
       <c r="AD29" s="126"/>
       <c r="AE29" s="126"/>
       <c r="AF29" s="126"/>
-      <c r="AG29" s="28"/>
+      <c r="AG29" s="126"/>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
-      <c r="AJ29" s="126"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="6"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="126"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="7"/>
       <c r="AO29" s="6"/>
-      <c r="AP29" s="7"/>
+      <c r="AP29" s="6"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A30" s="177"/>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="169"/>
       <c r="B30" s="126"/>
       <c r="C30" s="126"/>
       <c r="D30" s="126"/>
@@ -8097,18 +8559,18 @@
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
       <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="126"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="10"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="126"/>
+      <c r="T30" s="17"/>
       <c r="U30" s="126"/>
       <c r="V30" s="126"/>
       <c r="W30" s="126"/>
@@ -8121,20 +8583,21 @@
       <c r="AD30" s="126"/>
       <c r="AE30" s="126"/>
       <c r="AF30" s="126"/>
-      <c r="AG30" s="28"/>
+      <c r="AG30" s="126"/>
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
-      <c r="AJ30" s="126"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="7"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="126"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="6"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="169"/>
       <c r="B31" s="126"/>
       <c r="C31" s="126"/>
       <c r="D31" s="126"/>
@@ -8142,18 +8605,18 @@
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
       <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="10"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="126"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="17"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="126"/>
+      <c r="T31" s="17"/>
       <c r="U31" s="126"/>
       <c r="V31" s="126"/>
       <c r="W31" s="126"/>
@@ -8166,20 +8629,21 @@
       <c r="AD31" s="126"/>
       <c r="AE31" s="126"/>
       <c r="AF31" s="126"/>
-      <c r="AG31" s="28"/>
+      <c r="AG31" s="126"/>
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
-      <c r="AJ31" s="126"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="7"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="126"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="6"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="178"/>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="170"/>
       <c r="B32" s="5" t="e">
         <f>AVERAGE(B27:B31)</f>
         <v>#DIV/0!</v>
@@ -8206,23 +8670,20 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="15"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="11"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="18" t="e">
-        <f>AVERAGE(Q27:Q31)</f>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="18" t="e">
+        <f>AVERAGE(R27:R31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="18" t="e">
-        <f t="shared" ref="R32:AJ32" si="8">AVERAGE(R27:R31)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="S32" s="18" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S32:AK32" si="8">AVERAGE(S27:S31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="18" t="e">
@@ -8277,7 +8738,7 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG32" s="29" t="e">
+      <c r="AG32" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -8289,20 +8750,30 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ32" s="18" t="e">
+      <c r="AJ32" s="29" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="7"/>
+      <c r="AK32" s="18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM32" s="7">
+        <v>-0.32018000000000002</v>
+      </c>
+      <c r="AN32" s="7">
+        <v>-0.27654000000000006</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>-0.25270000000000004</v>
+      </c>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A33" s="168" t="s">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A33" s="171" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="127"/>
@@ -8312,18 +8783,18 @@
       <c r="F33" s="127"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="10"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="126"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="17"/>
+      <c r="Q33" s="10"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="126"/>
+      <c r="T33" s="17"/>
       <c r="U33" s="126"/>
       <c r="V33" s="126"/>
       <c r="W33" s="126"/>
@@ -8336,20 +8807,21 @@
       <c r="AD33" s="126"/>
       <c r="AE33" s="126"/>
       <c r="AF33" s="126"/>
-      <c r="AG33" s="28"/>
+      <c r="AG33" s="126"/>
       <c r="AH33" s="28"/>
       <c r="AI33" s="28"/>
-      <c r="AJ33" s="126"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="7"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="126"/>
+      <c r="AM33" s="6"/>
       <c r="AN33" s="7"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="6"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A34" s="168"/>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A34" s="171"/>
       <c r="B34" s="127"/>
       <c r="C34" s="127"/>
       <c r="D34" s="127"/>
@@ -8357,18 +8829,18 @@
       <c r="F34" s="127"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="10"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="126"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="17"/>
+      <c r="Q34" s="10"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="126"/>
+      <c r="T34" s="17"/>
       <c r="U34" s="126"/>
       <c r="V34" s="126"/>
       <c r="W34" s="126"/>
@@ -8381,20 +8853,21 @@
       <c r="AD34" s="126"/>
       <c r="AE34" s="126"/>
       <c r="AF34" s="126"/>
-      <c r="AG34" s="28"/>
+      <c r="AG34" s="126"/>
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
-      <c r="AJ34" s="126"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="7"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="126"/>
+      <c r="AM34" s="6"/>
       <c r="AN34" s="7"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="6"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A35" s="168"/>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A35" s="171"/>
       <c r="B35" s="127"/>
       <c r="C35" s="127"/>
       <c r="D35" s="127"/>
@@ -8402,18 +8875,18 @@
       <c r="F35" s="127"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="10"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="126"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="17"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="126"/>
+      <c r="T35" s="17"/>
       <c r="U35" s="126"/>
       <c r="V35" s="126"/>
       <c r="W35" s="126"/>
@@ -8426,20 +8899,21 @@
       <c r="AD35" s="126"/>
       <c r="AE35" s="126"/>
       <c r="AF35" s="126"/>
-      <c r="AG35" s="28"/>
+      <c r="AG35" s="126"/>
       <c r="AH35" s="28"/>
       <c r="AI35" s="28"/>
-      <c r="AJ35" s="126"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="7"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="126"/>
+      <c r="AM35" s="6"/>
       <c r="AN35" s="7"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="6"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A36" s="168"/>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A36" s="171"/>
       <c r="B36" s="127"/>
       <c r="C36" s="127"/>
       <c r="D36" s="127"/>
@@ -8447,18 +8921,18 @@
       <c r="F36" s="127"/>
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="126"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="10"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
-      <c r="T36" s="126"/>
+      <c r="T36" s="17"/>
       <c r="U36" s="126"/>
       <c r="V36" s="126"/>
       <c r="W36" s="126"/>
@@ -8471,20 +8945,21 @@
       <c r="AD36" s="126"/>
       <c r="AE36" s="126"/>
       <c r="AF36" s="126"/>
-      <c r="AG36" s="28"/>
+      <c r="AG36" s="126"/>
       <c r="AH36" s="28"/>
       <c r="AI36" s="28"/>
-      <c r="AJ36" s="126"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="7"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="126"/>
+      <c r="AM36" s="6"/>
       <c r="AN36" s="7"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="6"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="168"/>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A37" s="171"/>
       <c r="B37" s="127"/>
       <c r="C37" s="127"/>
       <c r="D37" s="127"/>
@@ -8492,18 +8967,18 @@
       <c r="F37" s="127"/>
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="10"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="17"/>
+      <c r="Q37" s="10"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
-      <c r="T37" s="126"/>
+      <c r="T37" s="17"/>
       <c r="U37" s="126"/>
       <c r="V37" s="126"/>
       <c r="W37" s="126"/>
@@ -8516,20 +8991,21 @@
       <c r="AD37" s="126"/>
       <c r="AE37" s="126"/>
       <c r="AF37" s="126"/>
-      <c r="AG37" s="28"/>
+      <c r="AG37" s="126"/>
       <c r="AH37" s="28"/>
       <c r="AI37" s="28"/>
-      <c r="AJ37" s="126"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="7"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="126"/>
+      <c r="AM37" s="6"/>
       <c r="AN37" s="7"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="6"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A38" s="168"/>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38" s="171"/>
       <c r="B38" s="32" t="e">
         <f>AVERAGE(B33:B37)</f>
         <v>#DIV/0!</v>
@@ -8556,23 +9032,20 @@
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="37" t="e">
-        <f>AVERAGE(Q33:Q37)</f>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="37" t="e">
+        <f>AVERAGE(R33:R37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="37" t="e">
-        <f t="shared" ref="R38:AJ38" si="10">AVERAGE(R33:R37)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="S38" s="37" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="S38:AK38" si="10">AVERAGE(S33:S37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="37" t="e">
@@ -8643,90 +9116,101 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
+      <c r="AK38" s="37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM38" s="7">
+        <v>-0.3357</v>
+      </c>
+      <c r="AN38" s="7">
+        <v>-0.19797999999999999</v>
+      </c>
+      <c r="AO38" s="7">
+        <v>-0.15728</v>
+      </c>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="7"/>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AM39" s="6"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="7"/>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AM40" s="6"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="T41" s="31"/>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="7"/>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="U41" s="31"/>
+      <c r="AM41" s="6"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="7"/>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AM42" s="6"/>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AL43" s="6"/>
-      <c r="AM43" s="7"/>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AM43" s="6"/>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
+  <mergeCells count="29">
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8742,124 +9226,124 @@
       <selection pane="bottomLeft" activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="24" customWidth="1"/>
     <col min="3" max="13" width="6" style="24" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="22" max="45" width="6" style="110" customWidth="1"/>
     <col min="46" max="51" width="6" style="24" customWidth="1"/>
-    <col min="52" max="59" width="9.109375" style="24"/>
-    <col min="60" max="61" width="13.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.109375" style="24"/>
+    <col min="52" max="59" width="9.140625" style="24"/>
+    <col min="60" max="61" width="13.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="185" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="195" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="185" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="185" t="s">
+      <c r="I1" s="195"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="185"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="196" t="s">
+      <c r="L1" s="195"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="193" t="s">
+      <c r="O1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="193" t="s">
+      <c r="P1" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="193" t="s">
+      <c r="Q1" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="199" t="s">
+      <c r="R1" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="193" t="s">
+      <c r="S1" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="193" t="s">
+      <c r="T1" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="189" t="s">
+      <c r="V1" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="189"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="189" t="s">
+      <c r="W1" s="193"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="189" t="s">
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="189" t="s">
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="189"/>
-      <c r="AG1" s="190"/>
-      <c r="AH1" s="189" t="s">
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="189"/>
-      <c r="AJ1" s="190"/>
-      <c r="AK1" s="189" t="s">
+      <c r="AI1" s="193"/>
+      <c r="AJ1" s="194"/>
+      <c r="AK1" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="190"/>
-      <c r="AN1" s="189" t="s">
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
+      <c r="AN1" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="189"/>
-      <c r="AP1" s="190"/>
-      <c r="AQ1" s="189" t="s">
+      <c r="AO1" s="193"/>
+      <c r="AP1" s="194"/>
+      <c r="AQ1" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" s="189"/>
-      <c r="AS1" s="190"/>
-      <c r="AT1" s="185" t="s">
+      <c r="AR1" s="193"/>
+      <c r="AS1" s="194"/>
+      <c r="AT1" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="186"/>
-      <c r="AW1" s="185" t="s">
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="196"/>
+      <c r="AW1" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="185"/>
-      <c r="AY1" s="186"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="196"/>
       <c r="AZ1" s="191" t="s">
         <v>47</v>
       </c>
@@ -8965,8 +9449,8 @@
       <c r="ED1" s="66"/>
       <c r="EE1" s="66"/>
     </row>
-    <row r="2" spans="1:135" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="188"/>
+    <row r="2" spans="1:135" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="198"/>
       <c r="B2" s="54" t="s">
         <v>60</v>
       </c>
@@ -9003,14 +9487,14 @@
       <c r="M2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="182"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="185"/>
       <c r="V2" s="84" t="s">
         <v>60</v>
       </c>
@@ -9186,8 +9670,8 @@
       <c r="ED2" s="67"/>
       <c r="EE2" s="67"/>
     </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A3" s="182" t="s">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A3" s="185" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="40">
@@ -9438,8 +9922,8 @@
       <c r="ED3" s="66"/>
       <c r="EE3" s="66"/>
     </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
+    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A4" s="185"/>
       <c r="B4" s="19">
         <v>0.70699999999999996</v>
       </c>
@@ -9637,8 +10121,8 @@
       <c r="BZ4" s="66"/>
       <c r="CA4" s="66"/>
     </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
+    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A5" s="185"/>
       <c r="B5" s="19">
         <v>0.61699999999999999</v>
       </c>
@@ -9836,8 +10320,8 @@
       <c r="BZ5" s="66"/>
       <c r="CA5" s="66"/>
     </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
+    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A6" s="185"/>
       <c r="B6" s="19">
         <v>0.64300000000000002</v>
       </c>
@@ -10019,8 +10503,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
+    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A7" s="185"/>
       <c r="B7" s="19">
         <v>0.65</v>
       </c>
@@ -10202,8 +10686,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:135" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="183"/>
+    <row r="8" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="202"/>
       <c r="B8" s="71">
         <f>AVERAGE(B3:B7)</f>
         <v>0.66539999999999988</v>
@@ -10437,8 +10921,8 @@
         <v>4.3340000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A9" s="199" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="40">
@@ -10622,8 +11106,8 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
+    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A10" s="200"/>
       <c r="B10" s="19">
         <v>0.65</v>
       </c>
@@ -10805,8 +11289,8 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A11" s="200"/>
       <c r="B11" s="19">
         <v>0.65700000000000003</v>
       </c>
@@ -10988,8 +11472,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
+    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A12" s="200"/>
       <c r="B12" s="19">
         <v>0.69299999999999995</v>
       </c>
@@ -11171,8 +11655,8 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
+    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A13" s="200"/>
       <c r="B13" s="19">
         <v>0.72</v>
       </c>
@@ -11354,8 +11838,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:135" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="181"/>
+    <row r="14" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="201"/>
       <c r="B14" s="76">
         <f>AVERAGE(B9:B13)</f>
         <v>0.67400000000000004</v>
@@ -11590,8 +12074,8 @@
       </c>
       <c r="BJ14" s="158"/>
     </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A15" s="182" t="s">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A15" s="185" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="40">
@@ -11775,8 +12259,8 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A16" s="185"/>
       <c r="B16" s="19">
         <v>0.65700000000000003</v>
       </c>
@@ -11958,8 +12442,8 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" s="185"/>
       <c r="B17" s="19">
         <v>0.65</v>
       </c>
@@ -12141,8 +12625,8 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="185"/>
       <c r="B18" s="19">
         <v>0.63700000000000001</v>
       </c>
@@ -12324,8 +12808,8 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="185"/>
       <c r="B19" s="19">
         <v>0.67300000000000004</v>
       </c>
@@ -12507,8 +12991,8 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="183"/>
+    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="202"/>
       <c r="B20" s="71">
         <f>AVERAGE(B15:B19)</f>
         <v>0.65680000000000005</v>
@@ -12742,8 +13226,8 @@
         <v>8.0520000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A21" s="184" t="s">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="203" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="40">
@@ -12927,8 +13411,8 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" s="185"/>
       <c r="B22" s="19">
         <v>0.71699999999999997</v>
       </c>
@@ -13110,8 +13594,8 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="185"/>
       <c r="B23" s="19">
         <v>0.7</v>
       </c>
@@ -13293,8 +13777,8 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" s="185"/>
       <c r="B24" s="19">
         <v>0.70299999999999996</v>
       </c>
@@ -13476,8 +13960,8 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" s="185"/>
       <c r="B25" s="19">
         <v>0.67300000000000004</v>
       </c>
@@ -13659,8 +14143,8 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="183"/>
+    <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="202"/>
       <c r="B26" s="76">
         <f>AVERAGE(B21:B25)</f>
         <v>0.68859999999999999</v>
@@ -13894,8 +14378,8 @@
         <v>25.892000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="203" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="40">
@@ -14079,8 +14563,8 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" s="185"/>
       <c r="B28" s="19">
         <v>0.64300000000000002</v>
       </c>
@@ -14262,8 +14746,8 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" s="185"/>
       <c r="B29" s="19">
         <v>0.67</v>
       </c>
@@ -14445,8 +14929,8 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="185"/>
       <c r="B30" s="19">
         <v>0.62</v>
       </c>
@@ -14628,8 +15112,8 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="185"/>
       <c r="B31" s="19">
         <v>0.68</v>
       </c>
@@ -14811,8 +15295,8 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="183"/>
+    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="202"/>
       <c r="B32" s="71">
         <f t="shared" ref="B32:M32" si="22">AVERAGE(B27:B31)</f>
         <v>0.65400000000000014</v>
@@ -15046,8 +15530,8 @@
         <v>20.445999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A33" s="179" t="s">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" s="199" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="40">
@@ -15231,8 +15715,8 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A34" s="180"/>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" s="200"/>
       <c r="B34" s="19">
         <v>0.66700000000000004</v>
       </c>
@@ -15414,8 +15898,8 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="200"/>
       <c r="B35" s="19">
         <v>0.64300000000000002</v>
       </c>
@@ -15597,8 +16081,8 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A36" s="180"/>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" s="200"/>
       <c r="B36" s="19">
         <v>0.64</v>
       </c>
@@ -15780,8 +16264,8 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A37" s="180"/>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" s="200"/>
       <c r="B37" s="19">
         <v>0.63</v>
       </c>
@@ -15963,8 +16447,8 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="38" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="181"/>
+    <row r="38" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="201"/>
       <c r="B38" s="76">
         <f t="shared" ref="B38:M38" si="24">AVERAGE(B33:B37)</f>
         <v>0.65659999999999996</v>
@@ -16198,29 +16682,60 @@
         <v>35.308</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="AY39" s="65"/>
       <c r="BG39" s="66"/>
       <c r="BH39" s="66"/>
       <c r="BI39" s="66"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
       <c r="I41" s="66"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BI1:BI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
@@ -16229,37 +16744,6 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
